--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="SPRINT1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="SPRINT2" sheetId="4" r:id="rId3"/>
-    <sheet name="Member" sheetId="2" r:id="rId4"/>
-    <sheet name="TaskStatus" sheetId="3" r:id="rId5"/>
-    <sheet name="Project Coreflow" sheetId="6" r:id="rId6"/>
+    <sheet name="SPRINT2" sheetId="4" r:id="rId2"/>
+    <sheet name="SPRINT3" sheetId="8" r:id="rId3"/>
+    <sheet name="Project Coreflow" sheetId="6" r:id="rId4"/>
+    <sheet name="Question" sheetId="7" r:id="rId5"/>
+    <sheet name="Member" sheetId="2" r:id="rId6"/>
+    <sheet name="TaskStatus" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Member">Member!$A$1:$A$4</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
   <si>
     <t>No.</t>
   </si>
@@ -105,12 +106,66 @@
   <si>
     <t>26/5/2015</t>
   </si>
+  <si>
+    <t>Create user profile (connect automatically with their social network)</t>
+  </si>
+  <si>
+    <t>Manage friends list</t>
+  </si>
+  <si>
+    <t>Scan near-by locations to find people around the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan near-by location / Matching user's interest and profile with other là 2 function khác nhau hay là 1 ( trong khi scan thì chỉ suggest những user nào match) </t>
+  </si>
+  <si>
+    <t>Matching user’s interest and profile with others</t>
+  </si>
+  <si>
+    <t>Suggest user’s people they might want to meet based on their friend’s connections</t>
+  </si>
+  <si>
+    <t>Real time chat &amp; notification when events happen</t>
+  </si>
+  <si>
+    <t>4 main coreflow are listed below:</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>Design chat UI</t>
+  </si>
+  <si>
+    <t>Create user profile. This feature should connect automatically to current user account on other social sites [Facebook, Google+, ..) là cho login qua facebook, google thôi hay là có thêm việc lấy list friends có sử dụng app này??</t>
+  </si>
+  <si>
+    <t>Design main layout</t>
+  </si>
+  <si>
+    <t>Design login/social network connection UI</t>
+  </si>
+  <si>
+    <t>Design Utilities layout</t>
+  </si>
+  <si>
+    <t>Report 1: Introduction</t>
+  </si>
+  <si>
+    <t>Design mockup UI</t>
+  </si>
+  <si>
+    <t>18/5/2015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +211,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,8 +239,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,12 +287,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -216,16 +340,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -239,6 +357,73 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +612,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT1!$B$26:$B$27</c:f>
+              <c:f>SPRINT1!$B$27:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -441,15 +626,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT1!$C$26:$C$27</c:f>
+              <c:f>SPRINT1!$C$27:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,7 +833,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT1!$B$50:$B$53</c:f>
+              <c:f>SPRINT1!$B$51:$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -668,21 +853,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT1!$E$50:$E$53</c:f>
+              <c:f>SPRINT1!$E$51:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,11 +883,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1545410096"/>
-        <c:axId val="-1545424784"/>
+        <c:axId val="-43083648"/>
+        <c:axId val="-43085280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1545410096"/>
+        <c:axId val="-43083648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1545424784"/>
+        <c:crossAx val="-43085280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -753,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1545424784"/>
+        <c:axId val="-43085280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -805,7 +990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1545410096"/>
+        <c:crossAx val="-43083648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,10 +1223,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,16 +1450,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,11 +1475,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1696781200"/>
-        <c:axId val="-1696785008"/>
+        <c:axId val="-43079296"/>
+        <c:axId val="-43085824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1696781200"/>
+        <c:axId val="-43079296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1696785008"/>
+        <c:crossAx val="-43085824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1345,7 +1530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1696785008"/>
+        <c:axId val="-43085824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1397,7 +1582,599 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1696781200"/>
+        <c:crossAx val="-43079296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Tasks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SPRINT3!$B$26:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Finished</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inprocess</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPRINT3!$C$26:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71150451021208549"/>
+          <c:y val="0.417339059890241"/>
+          <c:w val="0.24251847829366158"/>
+          <c:h val="0.16568519844110396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Team</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SPRINT3!$B$50:$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ThangPV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KhuongMH</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HungLV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KhoaVNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPRINT3!$E$50:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-43084736"/>
+        <c:axId val="-43082016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-43084736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-43082016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-43082016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-43084736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1606,6 +2383,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -3650,7 +4507,1094 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3668,7 +5612,9 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3698,7 +5644,9 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3715,7 +5663,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4071,10 +6019,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:M54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="13">
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2</v>
+      </c>
+      <c r="I6" s="26">
+        <v>3</v>
+      </c>
+      <c r="J6" s="26">
+        <v>4</v>
+      </c>
+      <c r="K6" s="26">
+        <v>5</v>
+      </c>
+      <c r="L6" s="26">
+        <v>6</v>
+      </c>
+      <c r="M6" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7">
+        <v>12</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>6</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7">
+        <v>6</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7">
+        <f>COUNT(A7:A17)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B48" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14" t="e">
+        <f>D51/C51</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14" t="e">
+        <f t="shared" ref="E52:E54" si="0">D52/C52</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A21:C22"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E17">
+      <formula1>Status</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51:B54 D7:D17">
+      <formula1>Member</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4088,268 +6531,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="15">
-        <v>42343</v>
+      <c r="E1" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="15">
-        <v>42343</v>
+      <c r="E2" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>4</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>5</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>6</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -4358,554 +6801,116 @@
     </row>
     <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <f>COUNT(A7:A16)</f>
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="10">
-        <v>9</v>
+      <c r="C27" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="8">
-        <v>2</v>
-      </c>
-      <c r="D50" s="8">
-        <v>2</v>
-      </c>
-      <c r="E50" s="16">
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14" t="e">
         <f>D50/C50</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="D51" s="8">
-        <v>1</v>
-      </c>
-      <c r="E51" s="16">
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14" t="e">
         <f t="shared" ref="E51:E53" si="0">D51/C51</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-      <c r="D52" s="8">
-        <v>1</v>
-      </c>
-      <c r="E52" s="16">
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="8">
-        <v>1</v>
-      </c>
-      <c r="D53" s="8">
-        <v>1</v>
-      </c>
-      <c r="E53" s="16">
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A20:C21"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:M5"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E16">
-      <formula1>Status</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D16 B50:B53">
-      <formula1>Member</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3</v>
-      </c>
-      <c r="J6" s="7">
-        <v>4</v>
-      </c>
-      <c r="K6" s="7">
-        <v>5</v>
-      </c>
-      <c r="L6" s="7">
-        <v>6</v>
-      </c>
-      <c r="M6" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>10</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="8">
-        <f>COUNT(A7:A16)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B47" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="8">
-        <v>2</v>
-      </c>
-      <c r="D50" s="8">
-        <v>2</v>
-      </c>
-      <c r="E50" s="16">
-        <f>D50/C50</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="D51" s="8">
-        <v>1</v>
-      </c>
-      <c r="E51" s="16">
-        <f t="shared" ref="E51:E53" si="0">D51/C51</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-      <c r="D52" s="8">
-        <v>1</v>
-      </c>
-      <c r="E52" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="8">
-        <v>1</v>
-      </c>
-      <c r="D53" s="8">
-        <v>1</v>
-      </c>
-      <c r="E53" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -4933,12 +6938,566 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>6</v>
+      </c>
+      <c r="M6" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7">
+        <f>COUNT(A7:A16)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B47" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14" t="e">
+        <f>D50/C50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14" t="e">
+        <f t="shared" ref="E51:E53" si="0">D51/C51</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
+      <formula1>Status</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 B50:B53">
+      <formula1>Member</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>3</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>4</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>5</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>6</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4973,12 +7532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5010,21 +7569,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
   <si>
     <t>No.</t>
   </si>
@@ -357,18 +357,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -383,16 +371,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -412,6 +391,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -421,8 +406,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -883,11 +883,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-43083648"/>
-        <c:axId val="-43085280"/>
+        <c:axId val="-511786208"/>
+        <c:axId val="-511785664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-43083648"/>
+        <c:axId val="-511786208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-43085280"/>
+        <c:crossAx val="-511785664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-43085280"/>
+        <c:axId val="-511785664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -990,7 +990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-43083648"/>
+        <c:crossAx val="-511786208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1079,7 +1079,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1197,9 +1196,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1373,7 +1370,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1475,11 +1471,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-43079296"/>
-        <c:axId val="-43085824"/>
+        <c:axId val="-511794368"/>
+        <c:axId val="-501145456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-43079296"/>
+        <c:axId val="-511794368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-43085824"/>
+        <c:crossAx val="-501145456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-43085824"/>
+        <c:axId val="-501145456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1582,7 +1578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-43079296"/>
+        <c:crossAx val="-511794368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1671,7 +1667,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1789,9 +1784,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1965,7 +1958,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2067,11 +2059,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-43084736"/>
-        <c:axId val="-43082016"/>
+        <c:axId val="-501144912"/>
+        <c:axId val="-501142736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-43084736"/>
+        <c:axId val="-501144912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,7 +2106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-43082016"/>
+        <c:crossAx val="-501142736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2122,7 +2114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-43082016"/>
+        <c:axId val="-501142736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2174,7 +2166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-43084736"/>
+        <c:crossAx val="-501144912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5534,13 +5526,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2609021</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -6025,12 +6017,12 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
@@ -6039,11 +6031,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6052,9 +6044,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6063,60 +6055,60 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="20">
         <v>1</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="20">
         <v>2</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="20">
         <v>3</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="20">
         <v>4</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="20">
         <v>5</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="20">
         <v>6</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="20">
         <v>7</v>
       </c>
     </row>
@@ -6137,13 +6129,13 @@
       <c r="F7" s="7">
         <v>4</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -6160,15 +6152,15 @@
         <v>9</v>
       </c>
       <c r="F8" s="7">
-        <v>12</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -6178,16 +6170,22 @@
         <v>37</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7">
+        <v>20</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -6197,16 +6195,22 @@
         <v>40</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -6216,22 +6220,28 @@
         <v>41</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>20</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="7"/>
@@ -6244,19 +6254,19 @@
       <c r="F12" s="7">
         <v>6</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
         <v>6</v>
@@ -6267,19 +6277,19 @@
       <c r="F13" s="7">
         <v>6</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
         <v>7</v>
@@ -6290,19 +6300,19 @@
       <c r="F14" s="7">
         <v>6</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
         <v>8</v>
@@ -6313,59 +6323,55 @@
       <c r="F15" s="7">
         <v>6</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>10</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -6388,7 +6394,7 @@
       </c>
       <c r="C26" s="7">
         <f>COUNT(A7:A17)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -6413,16 +6419,16 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6531,11 +6537,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6544,9 +6550,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6555,41 +6561,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -6783,16 +6789,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -6957,11 +6963,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6970,9 +6976,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6981,41 +6987,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -7209,16 +7215,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -7385,64 +7391,64 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="22">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7475,7 +7481,7 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7483,7 +7489,7 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="26" t="s">
         <v>38</v>
       </c>
     </row>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
   <si>
     <t>No.</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>18/5/2015</t>
+  </si>
+  <si>
+    <t>ilike</t>
   </si>
 </sst>
 </file>
@@ -357,18 +360,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,23 +367,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -883,11 +886,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-511786208"/>
-        <c:axId val="-511785664"/>
+        <c:axId val="543644352"/>
+        <c:axId val="543644896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-511786208"/>
+        <c:axId val="543644352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-511785664"/>
+        <c:crossAx val="543644896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-511785664"/>
+        <c:axId val="543644896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -990,7 +993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-511786208"/>
+        <c:crossAx val="543644352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1471,11 +1474,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-511794368"/>
-        <c:axId val="-501145456"/>
+        <c:axId val="695909664"/>
+        <c:axId val="695911296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-511794368"/>
+        <c:axId val="695909664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-501145456"/>
+        <c:crossAx val="695911296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1526,7 +1529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-501145456"/>
+        <c:axId val="695911296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1578,7 +1581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-511794368"/>
+        <c:crossAx val="695909664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2059,11 +2062,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-501144912"/>
-        <c:axId val="-501142736"/>
+        <c:axId val="695904768"/>
+        <c:axId val="695906944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-501144912"/>
+        <c:axId val="695904768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-501142736"/>
+        <c:crossAx val="695906944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2114,7 +2117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-501142736"/>
+        <c:axId val="695906944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2166,7 +2169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-501144912"/>
+        <c:crossAx val="695904768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6017,7 +6020,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6040,7 +6043,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="13">
-        <v>42313</v>
+        <v>42343</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6090,25 +6093,25 @@
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
-      <c r="G6" s="20">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="16">
         <v>2</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="16">
         <v>3</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="16">
         <v>4</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="16">
         <v>5</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="16">
         <v>6</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="16">
         <v>7</v>
       </c>
     </row>
@@ -6129,13 +6132,13 @@
       <c r="F7" s="7">
         <v>4</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -6149,18 +6152,22 @@
         <v>5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
         <v>16</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+      <c r="G8" s="19">
+        <v>8</v>
+      </c>
+      <c r="H8" s="19">
+        <v>8</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -6179,13 +6186,13 @@
       <c r="F9" s="7">
         <v>20</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -6204,13 +6211,13 @@
       <c r="F10" s="7">
         <v>20</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -6229,13 +6236,13 @@
       <c r="F11" s="7">
         <v>20</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -6254,13 +6261,13 @@
       <c r="F12" s="7">
         <v>6</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -6277,13 +6284,13 @@
       <c r="F13" s="7">
         <v>6</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -6300,13 +6307,13 @@
       <c r="F14" s="7">
         <v>6</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -6323,13 +6330,13 @@
       <c r="F15" s="7">
         <v>6</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -6338,13 +6345,13 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -6353,13 +6360,13 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
@@ -6419,16 +6426,16 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6522,7 +6529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -7375,7 +7382,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7391,10 +7398,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -7402,19 +7409,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="37" t="s">
@@ -7422,10 +7429,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="37"/>
@@ -7434,21 +7441,21 @@
       <c r="A9" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="26">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7464,10 +7471,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7481,7 +7488,7 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7489,8 +7496,13 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -7,13 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="SPRINT1" sheetId="1" r:id="rId1"/>
-    <sheet name="SPRINT2" sheetId="4" r:id="rId2"/>
-    <sheet name="SPRINT3" sheetId="8" r:id="rId3"/>
-    <sheet name="Project Coreflow" sheetId="6" r:id="rId4"/>
-    <sheet name="Question" sheetId="7" r:id="rId5"/>
-    <sheet name="Member" sheetId="2" r:id="rId6"/>
-    <sheet name="TaskStatus" sheetId="3" r:id="rId7"/>
+    <sheet name="Product Backlog" sheetId="10" r:id="rId1"/>
+    <sheet name="SPRINT1" sheetId="1" r:id="rId2"/>
+    <sheet name="SPRINT2" sheetId="4" r:id="rId3"/>
+    <sheet name="SPRINT3" sheetId="8" r:id="rId4"/>
+    <sheet name="Project Coreflow" sheetId="6" r:id="rId5"/>
+    <sheet name="Question" sheetId="7" r:id="rId6"/>
+    <sheet name="Member" sheetId="2" r:id="rId7"/>
+    <sheet name="TaskStatus" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Member">Member!$A$1:$A$4</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
   <si>
     <t>No.</t>
   </si>
@@ -146,9 +147,6 @@
     <t>Design main layout</t>
   </si>
   <si>
-    <t>Design login/social network connection UI</t>
-  </si>
-  <si>
     <t>Design Utilities layout</t>
   </si>
   <si>
@@ -163,12 +161,102 @@
   <si>
     <t>ilike</t>
   </si>
+  <si>
+    <t>MOBILE DATING APPS</t>
+  </si>
+  <si>
+    <t>Create User Profile</t>
+  </si>
+  <si>
+    <t>Manage Friends List</t>
+  </si>
+  <si>
+    <t>Realtime chat</t>
+  </si>
+  <si>
+    <t>Register new account</t>
+  </si>
+  <si>
+    <t>Mapping current account and friend list from social network (facebook, google+)</t>
+  </si>
+  <si>
+    <t>Edit profile info: Interest, gender, location,…</t>
+  </si>
+  <si>
+    <t>Modify friend list (unfriends, block..)</t>
+  </si>
+  <si>
+    <t>Scan near-by location  by matching user's interest &amp; profile</t>
+  </si>
+  <si>
+    <t>View profile other people near by you who match your profile</t>
+  </si>
+  <si>
+    <t>Search add new friends</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommender System </t>
+  </si>
+  <si>
+    <t>Build a recommerder system to suggest friends base on user profile similarity</t>
+  </si>
+  <si>
+    <t>Suggest new friends base on friends connection</t>
+  </si>
+  <si>
+    <t>Suggest user you might want to meet base on your current friend connection</t>
+  </si>
+  <si>
+    <t>Realtime chat, communicate with available friends</t>
+  </si>
+  <si>
+    <t>Receive notification when their friends are near by</t>
+  </si>
+  <si>
+    <t>Chat notification</t>
+  </si>
+  <si>
+    <t>View chat history</t>
+  </si>
+  <si>
+    <t>Design login/social network connection</t>
+  </si>
+  <si>
+    <t>Design setting user profile</t>
+  </si>
+  <si>
+    <t>Design friends list UI</t>
+  </si>
+  <si>
+    <t>Design scan nearby user UI</t>
+  </si>
+  <si>
+    <t>Design UseCase</t>
+  </si>
+  <si>
+    <t>Design ERD</t>
+  </si>
+  <si>
+    <t>Show current location map and display friends which nearby user.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +305,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -332,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -396,6 +492,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,7 +625,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -608,14 +742,12 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT1!$B$27:$B$28</c:f>
+              <c:f>SPRINT1!$B$32:$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -629,7 +761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT1!$C$27:$C$28</c:f>
+              <c:f>SPRINT1!$C$32:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -784,7 +916,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -836,7 +967,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT1!$B$51:$B$54</c:f>
+              <c:f>SPRINT1!$B$56:$B$59</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -856,7 +987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT1!$E$51:$E$54</c:f>
+              <c:f>SPRINT1!$E$56:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -886,11 +1017,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="543644352"/>
-        <c:axId val="543644896"/>
+        <c:axId val="1807069408"/>
+        <c:axId val="1807061248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543644352"/>
+        <c:axId val="1807069408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +1064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543644896"/>
+        <c:crossAx val="1807061248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -941,7 +1072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543644896"/>
+        <c:axId val="1807061248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -993,7 +1124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543644352"/>
+        <c:crossAx val="1807069408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,11 +1605,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="695909664"/>
-        <c:axId val="695911296"/>
+        <c:axId val="1958725168"/>
+        <c:axId val="1958719184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="695909664"/>
+        <c:axId val="1958725168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695911296"/>
+        <c:crossAx val="1958719184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1529,7 +1660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="695911296"/>
+        <c:axId val="1958719184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1581,7 +1712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695909664"/>
+        <c:crossAx val="1958725168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2062,11 +2193,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="695904768"/>
-        <c:axId val="695906944"/>
+        <c:axId val="1958720816"/>
+        <c:axId val="1958727344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="695904768"/>
+        <c:axId val="1958720816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695906944"/>
+        <c:crossAx val="1958727344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2117,7 +2248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="695906944"/>
+        <c:axId val="1958727344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2169,7 +2300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695904768"/>
+        <c:crossAx val="1958720816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5530,13 +5661,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2609021</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5560,13 +5691,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6014,13 +6145,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>1</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>2</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>3</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>4</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
+        <v>5</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>6</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6034,11 +6355,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6047,52 +6368,52 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -6120,19 +6441,21 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7">
         <v>4</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="19">
+        <v>4</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -6152,16 +6475,14 @@
         <v>5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7">
         <v>16</v>
       </c>
-      <c r="G8" s="19">
-        <v>8</v>
-      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -6174,17 +6495,17 @@
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -6199,17 +6520,17 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -6224,17 +6545,17 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -6248,18 +6569,18 @@
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>42</v>
+      <c r="B12" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -6273,16 +6594,18 @@
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -6296,7 +6619,9 @@
       <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
         <v>7</v>
@@ -6305,7 +6630,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -6319,7 +6644,9 @@
       <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
         <v>8</v>
@@ -6328,7 +6655,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -6339,12 +6666,22 @@
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7">
+        <v>14</v>
+      </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -6354,147 +6691,258 @@
       <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="19">
+        <v>4</v>
+      </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
     </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="12" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="7">
-        <f>COUNT(A7:A17)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="C31" s="7">
+        <f>COUNT(A7:A22)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C32" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C33" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B48" s="12" t="s">
+    <row r="53" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B53" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D55" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C56" s="7">
         <v>0</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D56" s="7">
         <v>0</v>
       </c>
-      <c r="E51" s="14" t="e">
-        <f>D51/C51</f>
+      <c r="E56" s="14" t="e">
+        <f>D56/C56</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C57" s="7">
         <v>0</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D57" s="7">
         <v>0</v>
       </c>
-      <c r="E52" s="14" t="e">
-        <f t="shared" ref="E52:E54" si="0">D52/C52</f>
+      <c r="E57" s="14" t="e">
+        <f t="shared" ref="E57:E59" si="0">D57/C57</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C58" s="7">
         <v>0</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D58" s="7">
         <v>0</v>
       </c>
-      <c r="E53" s="14" t="e">
+      <c r="E58" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C59" s="7">
         <v>0</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D59" s="7">
         <v>0</v>
       </c>
-      <c r="E54" s="14" t="e">
+      <c r="E59" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -6502,9 +6950,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B20"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A21:C22"/>
+    <mergeCell ref="A26:C27"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
@@ -6513,11 +6961,11 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B59 D7:D22">
+      <formula1>Member</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E22">
       <formula1>Status</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51:B54 D7:D17">
-      <formula1>Member</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6525,7 +6973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
@@ -6544,11 +6992,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6557,9 +7005,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6568,41 +7016,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -6796,16 +7244,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -6951,7 +7399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
@@ -6970,11 +7418,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6983,9 +7431,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6994,41 +7442,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -7222,16 +7670,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -7377,7 +7825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C10"/>
   <sheetViews>
@@ -7404,7 +7852,7 @@
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="50" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7415,7 +7863,7 @@
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -7424,7 +7872,7 @@
       <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="50" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7435,7 +7883,7 @@
       <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
@@ -7469,7 +7917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -7502,7 +7950,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -7510,7 +7958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -7550,7 +7998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
   <si>
     <t>No.</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Design Utilities layout</t>
   </si>
   <si>
-    <t>Report 1: Introduction</t>
-  </si>
-  <si>
     <t>Design mockup UI</t>
   </si>
   <si>
@@ -250,6 +247,15 @@
   </si>
   <si>
     <t>Show current location map and display friends which nearby user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Web </t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Report 1</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -407,17 +413,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -428,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -511,20 +506,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -532,17 +515,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,6 +614,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -742,12 +732,14 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT1!$B$32:$B$33</c:f>
+              <c:f>SPRINT1!$B$29:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -761,7 +753,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT1!$C$32:$C$33</c:f>
+              <c:f>SPRINT1!$C$29:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -967,7 +959,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT1!$B$56:$B$59</c:f>
+              <c:f>SPRINT1!$B$53:$B$56</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -987,7 +979,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT1!$E$56:$E$59</c:f>
+              <c:f>SPRINT1!$E$53:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1017,11 +1009,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1807069408"/>
-        <c:axId val="1807061248"/>
+        <c:axId val="1063463360"/>
+        <c:axId val="1063467712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1807069408"/>
+        <c:axId val="1063463360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1807061248"/>
+        <c:crossAx val="1063467712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1072,7 +1064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1807061248"/>
+        <c:axId val="1063467712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1124,7 +1116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1807069408"/>
+        <c:crossAx val="1063463360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,11 +1597,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1958725168"/>
-        <c:axId val="1958719184"/>
+        <c:axId val="1063213088"/>
+        <c:axId val="1214776896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1958725168"/>
+        <c:axId val="1063213088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1958719184"/>
+        <c:crossAx val="1214776896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1660,7 +1652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1958719184"/>
+        <c:axId val="1214776896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1712,7 +1704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1958725168"/>
+        <c:crossAx val="1063213088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2193,11 +2185,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1958720816"/>
-        <c:axId val="1958727344"/>
+        <c:axId val="1214777984"/>
+        <c:axId val="1214775808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1958720816"/>
+        <c:axId val="1214777984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +2232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1958727344"/>
+        <c:crossAx val="1214775808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2248,7 +2240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1958727344"/>
+        <c:axId val="1214775808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2300,7 +2292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1958720816"/>
+        <c:crossAx val="1214777984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5661,13 +5653,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2609021</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5691,13 +5683,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6147,8 +6139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6160,19 +6152,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -6186,74 +6178,74 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="36">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
+        <v>2</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="30" t="s">
+      <c r="C9" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
-        <v>2</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="30" t="s">
+    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
+        <v>3</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
-        <v>3</v>
-      </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="30" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -6261,46 +6253,46 @@
         <v>4</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="30" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
-        <v>5</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="30" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
+        <v>6</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
-        <v>6</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="30" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="30" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6308,14 +6300,18 @@
         <v>7</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A11:A12"/>
@@ -6323,10 +6319,6 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6338,28 +6330,28 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6368,52 +6360,52 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -6441,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
@@ -6495,7 +6487,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
@@ -6520,7 +6512,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
@@ -6547,7 +6539,9 @@
       <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -6570,9 +6564,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
@@ -6595,9 +6591,11 @@
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
@@ -6620,9 +6618,11 @@
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
@@ -6645,9 +6645,11 @@
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
@@ -6672,7 +6674,9 @@
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
@@ -6692,14 +6696,14 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>11</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>10</v>
@@ -6709,9 +6713,7 @@
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="19">
-        <v>4</v>
-      </c>
+      <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -6719,19 +6721,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>12</v>
-      </c>
-      <c r="B18" s="43"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="7">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -6741,20 +6743,12 @@
       <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>13</v>
-      </c>
-      <c r="B19" s="43"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7">
-        <v>4</v>
-      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -6763,133 +6757,125 @@
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>14</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="7" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7">
+        <f>COUNT(A7:A19)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="7">
-        <v>4</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="B30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B50" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="7">
-        <f>COUNT(A7:A22)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="D52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="4">
+      <c r="E52" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="D53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B53" s="12" t="s">
-        <v>22</v>
+      <c r="E53" s="14" t="e">
+        <f>D53/C53</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14" t="e">
+        <f t="shared" ref="E54:E56" si="0">D54/C54</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>23</v>
+      <c r="B55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -6898,61 +6884,15 @@
         <v>0</v>
       </c>
       <c r="E56" s="14" t="e">
-        <f>D56/C56</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="7">
-        <v>0</v>
-      </c>
-      <c r="D57" s="7">
-        <v>0</v>
-      </c>
-      <c r="E57" s="14" t="e">
-        <f t="shared" ref="E57:E59" si="0">D57/C57</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="7">
-        <v>0</v>
-      </c>
-      <c r="D58" s="7">
-        <v>0</v>
-      </c>
-      <c r="E58" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="7">
-        <v>0</v>
-      </c>
-      <c r="D59" s="7">
-        <v>0</v>
-      </c>
-      <c r="E59" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="B17:B20"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="A23:C24"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
@@ -6960,11 +6900,11 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B59 D7:D22">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:B56 D7:D19">
       <formula1>Member</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E19">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -6992,11 +6932,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7005,9 +6945,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7016,41 +6956,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -7244,16 +7184,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -7418,11 +7358,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7431,9 +7371,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7442,41 +7382,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -7670,16 +7610,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -7852,7 +7792,7 @@
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="48" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7863,7 +7803,7 @@
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -7872,7 +7812,7 @@
       <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="48" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7883,7 +7823,7 @@
       <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="48"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
@@ -7950,7 +7890,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -509,6 +509,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -526,9 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,7 +614,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -732,9 +731,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1009,11 +1006,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1063463360"/>
-        <c:axId val="1063467712"/>
+        <c:axId val="-202710560"/>
+        <c:axId val="-201786736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1063463360"/>
+        <c:axId val="-202710560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1063467712"/>
+        <c:crossAx val="-201786736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1064,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1063467712"/>
+        <c:axId val="-201786736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1116,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1063463360"/>
+        <c:crossAx val="-202710560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,11 +1594,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1063213088"/>
-        <c:axId val="1214776896"/>
+        <c:axId val="-201788912"/>
+        <c:axId val="-201794352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1063213088"/>
+        <c:axId val="-201788912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214776896"/>
+        <c:crossAx val="-201794352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1652,7 +1649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1214776896"/>
+        <c:axId val="-201794352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1704,7 +1701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1063213088"/>
+        <c:crossAx val="-201788912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,11 +2182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1214777984"/>
-        <c:axId val="1214775808"/>
+        <c:axId val="-201785648"/>
+        <c:axId val="-201788368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1214777984"/>
+        <c:axId val="-201785648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214775808"/>
+        <c:crossAx val="-201788368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1214775808"/>
+        <c:axId val="-201788368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2292,7 +2289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214777984"/>
+        <c:crossAx val="-201785648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6152,19 +6149,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -6188,10 +6185,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="37">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -6199,24 +6196,24 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="37">
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -6224,17 +6221,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="37">
         <v>3</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="30" t="s">
@@ -6242,8 +6239,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="30" t="s">
         <v>53</v>
       </c>
@@ -6260,10 +6257,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="A14" s="38">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="30" t="s">
@@ -6271,17 +6268,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="30" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="37">
         <v>6</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -6289,8 +6286,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="30" t="s">
         <v>65</v>
       </c>
@@ -6333,7 +6330,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6474,10 +6471,14 @@
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19">
-        <v>10</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>6</v>
+      </c>
+      <c r="J8" s="19">
+        <v>6</v>
+      </c>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
@@ -6731,13 +6732,15 @@
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="J18" s="19">
+        <v>2</v>
+      </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -6900,7 +6903,7 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:B56 D7:D19">
       <formula1>Member</formula1>
     </dataValidation>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="10" r:id="rId1"/>
@@ -1006,11 +1006,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-202710560"/>
-        <c:axId val="-201786736"/>
+        <c:axId val="192920704"/>
+        <c:axId val="192921264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-202710560"/>
+        <c:axId val="192920704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-201786736"/>
+        <c:crossAx val="192921264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-201786736"/>
+        <c:axId val="192921264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1113,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-202710560"/>
+        <c:crossAx val="192920704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,11 +1594,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-201788912"/>
-        <c:axId val="-201794352"/>
+        <c:axId val="192925184"/>
+        <c:axId val="192925744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-201788912"/>
+        <c:axId val="192925184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-201794352"/>
+        <c:crossAx val="192925744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1649,7 +1649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-201794352"/>
+        <c:axId val="192925744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1701,7 +1701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-201788912"/>
+        <c:crossAx val="192925184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2182,11 +2182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-201785648"/>
-        <c:axId val="-201788368"/>
+        <c:axId val="193881312"/>
+        <c:axId val="193881872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-201785648"/>
+        <c:axId val="193881312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-201788368"/>
+        <c:crossAx val="193881872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-201788368"/>
+        <c:axId val="193881872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2289,7 +2289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-201785648"/>
+        <c:crossAx val="193881312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6329,8 +6329,8 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6662,8 +6662,12 @@
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="19">
+        <v>4</v>
+      </c>
+      <c r="J15" s="19">
+        <v>5</v>
+      </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
@@ -6712,9 +6716,15 @@
       <c r="F17" s="7">
         <v>4</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="19">
+        <v>2</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -1006,11 +1006,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="192920704"/>
-        <c:axId val="192921264"/>
+        <c:axId val="1888601152"/>
+        <c:axId val="1888604416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192920704"/>
+        <c:axId val="1888601152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192921264"/>
+        <c:crossAx val="1888604416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192921264"/>
+        <c:axId val="1888604416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1113,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192920704"/>
+        <c:crossAx val="1888601152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,11 +1594,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="192925184"/>
-        <c:axId val="192925744"/>
+        <c:axId val="1888589728"/>
+        <c:axId val="1888507024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192925184"/>
+        <c:axId val="1888589728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192925744"/>
+        <c:crossAx val="1888507024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1649,7 +1649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192925744"/>
+        <c:axId val="1888507024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1701,7 +1701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192925184"/>
+        <c:crossAx val="1888589728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2182,11 +2182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="193881312"/>
-        <c:axId val="193881872"/>
+        <c:axId val="2039991872"/>
+        <c:axId val="2039992416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193881312"/>
+        <c:axId val="2039991872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193881872"/>
+        <c:crossAx val="2039992416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193881872"/>
+        <c:axId val="2039992416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2289,7 +2289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193881312"/>
+        <c:crossAx val="2039991872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6329,8 +6329,8 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="10" r:id="rId1"/>
@@ -1006,11 +1006,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1888601152"/>
-        <c:axId val="1888604416"/>
+        <c:axId val="173029536"/>
+        <c:axId val="173030096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1888601152"/>
+        <c:axId val="173029536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888604416"/>
+        <c:crossAx val="173030096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888604416"/>
+        <c:axId val="173030096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1113,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888601152"/>
+        <c:crossAx val="173029536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,11 +1594,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1888589728"/>
-        <c:axId val="1888507024"/>
+        <c:axId val="173034016"/>
+        <c:axId val="173034576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1888589728"/>
+        <c:axId val="173034016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888507024"/>
+        <c:crossAx val="173034576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1649,7 +1649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888507024"/>
+        <c:axId val="173034576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1701,7 +1701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888589728"/>
+        <c:crossAx val="173034016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2182,11 +2182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2039991872"/>
-        <c:axId val="2039992416"/>
+        <c:axId val="173038496"/>
+        <c:axId val="173039056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2039991872"/>
+        <c:axId val="173038496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039992416"/>
+        <c:crossAx val="173039056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039992416"/>
+        <c:axId val="173039056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2289,7 +2289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039991872"/>
+        <c:crossAx val="173038496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6329,8 +6329,8 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6668,7 +6668,9 @@
       <c r="J15" s="19">
         <v>5</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="19">
+        <v>4</v>
+      </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
@@ -6695,7 +6697,9 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="K16" s="19">
+        <v>2</v>
+      </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
     </row>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -614,6 +614,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -731,7 +732,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1006,11 +1009,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173029536"/>
-        <c:axId val="173030096"/>
+        <c:axId val="-873493008"/>
+        <c:axId val="-873502256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173029536"/>
+        <c:axId val="-873493008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173030096"/>
+        <c:crossAx val="-873502256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173030096"/>
+        <c:axId val="-873502256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1113,7 +1116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173029536"/>
+        <c:crossAx val="-873493008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,11 +1597,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173034016"/>
-        <c:axId val="173034576"/>
+        <c:axId val="-873500624"/>
+        <c:axId val="-873500080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173034016"/>
+        <c:axId val="-873500624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173034576"/>
+        <c:crossAx val="-873500080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1649,7 +1652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173034576"/>
+        <c:axId val="-873500080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1701,7 +1704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173034016"/>
+        <c:crossAx val="-873500624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2182,11 +2185,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173038496"/>
-        <c:axId val="173039056"/>
+        <c:axId val="-720304032"/>
+        <c:axId val="-720304576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173038496"/>
+        <c:axId val="-720304032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173039056"/>
+        <c:crossAx val="-720304576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173039056"/>
+        <c:axId val="-720304576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2289,7 +2292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173038496"/>
+        <c:crossAx val="-720304032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6329,8 +6332,8 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6547,14 +6550,20 @@
         <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7">
         <v>14</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="G11" s="19">
+        <v>5</v>
+      </c>
+      <c r="H11" s="19">
+        <v>2</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2</v>
+      </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -325,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +365,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -551,6 +563,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,6 +930,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1009,11 +1032,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-873493008"/>
-        <c:axId val="-873502256"/>
+        <c:axId val="959967280"/>
+        <c:axId val="959969456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-873493008"/>
+        <c:axId val="959967280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873502256"/>
+        <c:crossAx val="959969456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1064,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-873502256"/>
+        <c:axId val="959969456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1116,7 +1139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873493008"/>
+        <c:crossAx val="959967280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,11 +1620,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-873500624"/>
-        <c:axId val="-873500080"/>
+        <c:axId val="959971632"/>
+        <c:axId val="959968368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-873500624"/>
+        <c:axId val="959971632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873500080"/>
+        <c:crossAx val="959968368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1652,7 +1675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-873500080"/>
+        <c:axId val="959968368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1704,7 +1727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873500624"/>
+        <c:crossAx val="959971632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,11 +2208,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-720304032"/>
-        <c:axId val="-720304576"/>
+        <c:axId val="959970544"/>
+        <c:axId val="959965648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-720304032"/>
+        <c:axId val="959970544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-720304576"/>
+        <c:crossAx val="959965648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-720304576"/>
+        <c:axId val="959965648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2292,7 +2315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-720304032"/>
+        <c:crossAx val="959970544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6333,7 +6356,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6467,254 +6490,256 @@
         <v>5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
         <v>16</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="19">
-        <v>6</v>
-      </c>
-      <c r="K8" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="K8" s="19">
+        <v>2</v>
+      </c>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="52">
         <v>4</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="52">
         <v>4</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="49">
         <v>14</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="50">
         <v>5</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="50">
         <v>2</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="50">
         <v>2</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+    </row>
+    <row r="12" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="52">
         <v>14</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="52">
         <v>14</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52">
         <v>8</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="52">
         <v>14</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="E15" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="49">
         <v>14</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19">
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50">
         <v>4</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="50">
         <v>5</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="50">
         <v>4</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+    </row>
+    <row r="16" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="E16" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="49">
         <v>14</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19">
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50">
         <v>2</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>76</v>
@@ -6743,30 +6768,32 @@
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
+        <v>12</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19">
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50">
         <v>2</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="K18" s="50">
+        <v>2</v>
+      </c>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -6935,7 +6962,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -521,6 +521,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,16 +573,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,11 +1032,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="959967280"/>
-        <c:axId val="959969456"/>
+        <c:axId val="131418256"/>
+        <c:axId val="131418816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="959967280"/>
+        <c:axId val="131418256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959969456"/>
+        <c:crossAx val="131418816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1087,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="959969456"/>
+        <c:axId val="131418816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1139,7 +1139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959967280"/>
+        <c:crossAx val="131418256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1620,11 +1620,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="959971632"/>
-        <c:axId val="959968368"/>
+        <c:axId val="132421632"/>
+        <c:axId val="132422192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="959971632"/>
+        <c:axId val="132421632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959968368"/>
+        <c:crossAx val="132422192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,7 +1675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="959968368"/>
+        <c:axId val="132422192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1727,7 +1727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959971632"/>
+        <c:crossAx val="132421632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2208,11 +2208,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="959970544"/>
-        <c:axId val="959965648"/>
+        <c:axId val="132426112"/>
+        <c:axId val="132426672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="959970544"/>
+        <c:axId val="132426112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959965648"/>
+        <c:crossAx val="132426672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2263,7 +2263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="959965648"/>
+        <c:axId val="132426672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2315,7 +2315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="959970544"/>
+        <c:crossAx val="132426112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6162,7 +6162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -6175,19 +6175,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -6211,10 +6211,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="43">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -6222,24 +6222,24 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="43">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="42" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -6247,17 +6247,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="43">
         <v>3</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="42" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="30" t="s">
@@ -6265,8 +6265,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="30" t="s">
         <v>53</v>
       </c>
@@ -6283,10 +6283,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="44">
         <v>5</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="46" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="30" t="s">
@@ -6294,17 +6294,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="30" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+      <c r="A16" s="43">
         <v>6</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -6312,8 +6312,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="30" t="s">
         <v>65</v>
       </c>
@@ -6355,8 +6355,8 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6370,11 +6370,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6383,9 +6383,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6394,41 +6394,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -6511,231 +6511,247 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+    <row r="9" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="38">
         <v>4</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-    </row>
-    <row r="10" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
         <v>4</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="38">
         <v>4</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-    </row>
-    <row r="11" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
         <v>5</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="35">
         <v>14</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="36">
         <v>5</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="36">
         <v>2</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="36">
         <v>2</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-    </row>
-    <row r="12" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
         <v>6</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="38">
         <v>14</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-    </row>
-    <row r="13" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <v>7</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="38">
+        <v>14</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39">
+        <v>2</v>
+      </c>
+      <c r="I13" s="39">
+        <v>2</v>
+      </c>
+      <c r="J13" s="39">
+        <v>2</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39">
+        <v>4</v>
+      </c>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>8</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="38">
+        <v>14</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39">
+        <v>2</v>
+      </c>
+      <c r="I14" s="39">
+        <v>2</v>
+      </c>
+      <c r="J14" s="39">
+        <v>2</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39">
+        <v>4</v>
+      </c>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
         <v>9</v>
       </c>
-      <c r="F13" s="52">
+      <c r="B15" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="35">
         <v>14</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-    </row>
-    <row r="14" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36">
+        <v>4</v>
+      </c>
+      <c r="J15" s="36">
+        <v>5</v>
+      </c>
+      <c r="K15" s="36">
+        <v>4</v>
+      </c>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>10</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="52">
+      <c r="E16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="35">
         <v>14</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-    </row>
-    <row r="15" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
-        <v>9</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="49">
-        <v>14</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50">
-        <v>4</v>
-      </c>
-      <c r="J15" s="50">
-        <v>5</v>
-      </c>
-      <c r="K15" s="50">
-        <v>4</v>
-      </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-    </row>
-    <row r="16" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
-        <v>10</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="49">
-        <v>14</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50">
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36">
         <v>2</v>
       </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -6768,32 +6784,32 @@
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
     </row>
-    <row r="18" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+    <row r="18" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
         <v>12</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36">
         <v>2</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="36">
         <v>2</v>
       </c>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -6811,16 +6827,16 @@
       <c r="M19" s="19"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -6986,11 +7002,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6999,9 +7015,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7010,41 +7026,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -7238,16 +7254,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -7412,11 +7428,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7425,9 +7441,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7436,41 +7452,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -7664,16 +7680,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -7846,7 +7862,7 @@
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="54" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7857,7 +7873,7 @@
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="54"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -7866,7 +7882,7 @@
       <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="54" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7877,7 +7893,7 @@
       <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="54"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -636,7 +636,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -754,9 +753,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -930,7 +927,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1032,11 +1028,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="131418256"/>
-        <c:axId val="131418816"/>
+        <c:axId val="-1594906160"/>
+        <c:axId val="-1594912688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131418256"/>
+        <c:axId val="-1594906160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131418816"/>
+        <c:crossAx val="-1594912688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1087,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131418816"/>
+        <c:axId val="-1594912688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1139,7 +1135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131418256"/>
+        <c:crossAx val="-1594906160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1620,11 +1616,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="132421632"/>
-        <c:axId val="132422192"/>
+        <c:axId val="-1439010768"/>
+        <c:axId val="-1439003152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132421632"/>
+        <c:axId val="-1439010768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132422192"/>
+        <c:crossAx val="-1439003152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,7 +1671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132422192"/>
+        <c:axId val="-1439003152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1727,7 +1723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132421632"/>
+        <c:crossAx val="-1439010768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2208,11 +2204,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="132426112"/>
-        <c:axId val="132426672"/>
+        <c:axId val="-1439002608"/>
+        <c:axId val="-1439007504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132426112"/>
+        <c:axId val="-1439002608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132426672"/>
+        <c:crossAx val="-1439007504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2263,7 +2259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132426672"/>
+        <c:axId val="-1439007504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2315,7 +2311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132426112"/>
+        <c:crossAx val="-1439002608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6163,7 +6159,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6355,8 +6351,8 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6511,55 +6507,59 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+    <row r="9" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
         <v>3</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="38">
+      <c r="E9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="35">
         <v>4</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-    </row>
-    <row r="10" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36">
         <v>4</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>4</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="38">
+      <c r="E10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="35">
         <v>4</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36">
+        <v>2</v>
+      </c>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
@@ -6621,75 +6621,75 @@
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
     </row>
-    <row r="13" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+    <row r="13" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
         <v>7</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="35">
         <v>14</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39">
+      <c r="G13" s="36"/>
+      <c r="H13" s="36">
         <v>2</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="36">
         <v>2</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="36">
         <v>2</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39">
+      <c r="K13" s="36"/>
+      <c r="L13" s="36">
         <v>4</v>
       </c>
-      <c r="M13" s="39"/>
-    </row>
-    <row r="14" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
         <v>8</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="35">
         <v>14</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39">
+      <c r="G14" s="36"/>
+      <c r="H14" s="36">
         <v>2</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="36">
         <v>2</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="36">
         <v>2</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36">
         <v>4</v>
       </c>
-      <c r="M14" s="39"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
@@ -6808,7 +6808,9 @@
       <c r="K18" s="36">
         <v>2</v>
       </c>
-      <c r="L18" s="36"/>
+      <c r="L18" s="36">
+        <v>2</v>
+      </c>
       <c r="M18" s="36"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="10" r:id="rId1"/>
@@ -1028,11 +1028,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1594906160"/>
-        <c:axId val="-1594912688"/>
+        <c:axId val="190761536"/>
+        <c:axId val="190762096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1594906160"/>
+        <c:axId val="190761536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1594912688"/>
+        <c:crossAx val="190762096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1594912688"/>
+        <c:axId val="190762096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1135,7 +1135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1594906160"/>
+        <c:crossAx val="190761536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1616,11 +1616,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1439010768"/>
-        <c:axId val="-1439003152"/>
+        <c:axId val="192458400"/>
+        <c:axId val="192458960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1439010768"/>
+        <c:axId val="192458400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439003152"/>
+        <c:crossAx val="192458960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1671,7 +1671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1439003152"/>
+        <c:axId val="192458960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1723,7 +1723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439010768"/>
+        <c:crossAx val="192458400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2204,11 +2204,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1439002608"/>
-        <c:axId val="-1439007504"/>
+        <c:axId val="192462880"/>
+        <c:axId val="193727328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1439002608"/>
+        <c:axId val="192462880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439007504"/>
+        <c:crossAx val="193727328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2259,7 +2259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1439007504"/>
+        <c:axId val="193727328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2311,7 +2311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1439002608"/>
+        <c:crossAx val="192462880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6351,8 +6351,8 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6750,7 +6750,9 @@
       <c r="K16" s="36">
         <v>2</v>
       </c>
-      <c r="L16" s="36"/>
+      <c r="L16" s="36">
+        <v>6</v>
+      </c>
       <c r="M16" s="36"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="10" r:id="rId1"/>
@@ -1028,11 +1028,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="190761536"/>
-        <c:axId val="190762096"/>
+        <c:axId val="162586704"/>
+        <c:axId val="162587264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190761536"/>
+        <c:axId val="162586704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190762096"/>
+        <c:crossAx val="162587264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190762096"/>
+        <c:axId val="162587264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1135,7 +1135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190761536"/>
+        <c:crossAx val="162586704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1616,11 +1616,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="192458400"/>
-        <c:axId val="192458960"/>
+        <c:axId val="162591184"/>
+        <c:axId val="162591744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192458400"/>
+        <c:axId val="162591184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192458960"/>
+        <c:crossAx val="162591744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1671,7 +1671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192458960"/>
+        <c:axId val="162591744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1723,7 +1723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192458400"/>
+        <c:crossAx val="162591184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2204,11 +2204,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="192462880"/>
-        <c:axId val="193727328"/>
+        <c:axId val="163374960"/>
+        <c:axId val="163375520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192462880"/>
+        <c:axId val="163374960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193727328"/>
+        <c:crossAx val="163375520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2259,7 +2259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193727328"/>
+        <c:axId val="163375520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2311,7 +2311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192462880"/>
+        <c:crossAx val="163374960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6716,13 +6716,15 @@
         <v>4</v>
       </c>
       <c r="J15" s="36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="36">
         <v>4</v>
       </c>
       <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="M15" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
@@ -6751,9 +6753,11 @@
         <v>2</v>
       </c>
       <c r="L16" s="36">
-        <v>6</v>
-      </c>
-      <c r="M16" s="36"/>
+        <v>4</v>
+      </c>
+      <c r="M16" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -6776,10 +6780,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I17" s="19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -636,6 +636,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -753,7 +754,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1028,11 +1031,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="162586704"/>
-        <c:axId val="162587264"/>
+        <c:axId val="135158512"/>
+        <c:axId val="135159072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162586704"/>
+        <c:axId val="135158512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162587264"/>
+        <c:crossAx val="135159072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1083,7 +1086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162587264"/>
+        <c:axId val="135159072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1135,7 +1138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162586704"/>
+        <c:crossAx val="135158512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1616,11 +1619,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="162591184"/>
-        <c:axId val="162591744"/>
+        <c:axId val="135162992"/>
+        <c:axId val="135163552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162591184"/>
+        <c:axId val="135162992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162591744"/>
+        <c:crossAx val="135163552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1671,7 +1674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162591744"/>
+        <c:axId val="135163552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1723,7 +1726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162591184"/>
+        <c:crossAx val="135162992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2204,11 +2207,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="163374960"/>
-        <c:axId val="163375520"/>
+        <c:axId val="135167472"/>
+        <c:axId val="135168032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163374960"/>
+        <c:axId val="135167472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2254,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163375520"/>
+        <c:crossAx val="135168032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2259,7 +2262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163375520"/>
+        <c:axId val="135168032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2311,7 +2314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163374960"/>
+        <c:crossAx val="135167472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6351,8 +6354,8 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6635,7 +6638,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="35">
         <v>14</v>
@@ -6654,7 +6657,9 @@
       <c r="L13" s="36">
         <v>4</v>
       </c>
-      <c r="M13" s="36"/>
+      <c r="M13" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35">
@@ -6689,7 +6694,9 @@
       <c r="L14" s="36">
         <v>4</v>
       </c>
-      <c r="M14" s="36"/>
+      <c r="M14" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Product Backlog" sheetId="10" r:id="rId1"/>
+    <sheet name="ProductBacklog" sheetId="11" r:id="rId1"/>
     <sheet name="SPRINT1" sheetId="1" r:id="rId2"/>
     <sheet name="SPRINT2" sheetId="4" r:id="rId3"/>
     <sheet name="SPRINT3" sheetId="8" r:id="rId4"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="111">
   <si>
     <t>No.</t>
   </si>
@@ -159,15 +159,6 @@
     <t>ilike</t>
   </si>
   <si>
-    <t>MOBILE DATING APPS</t>
-  </si>
-  <si>
-    <t>Create User Profile</t>
-  </si>
-  <si>
-    <t>Manage Friends List</t>
-  </si>
-  <si>
     <t>Realtime chat</t>
   </si>
   <si>
@@ -177,54 +168,15 @@
     <t>Mapping current account and friend list from social network (facebook, google+)</t>
   </si>
   <si>
-    <t>Edit profile info: Interest, gender, location,…</t>
-  </si>
-  <si>
-    <t>Modify friend list (unfriends, block..)</t>
-  </si>
-  <si>
-    <t>Scan near-by location  by matching user's interest &amp; profile</t>
-  </si>
-  <si>
-    <t>View profile other people near by you who match your profile</t>
-  </si>
-  <si>
-    <t>Search add new friends</t>
-  </si>
-  <si>
     <t>Notification</t>
   </si>
   <si>
     <t>Features</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recommender System </t>
   </si>
   <si>
-    <t>Build a recommerder system to suggest friends base on user profile similarity</t>
-  </si>
-  <si>
-    <t>Suggest new friends base on friends connection</t>
-  </si>
-  <si>
-    <t>Suggest user you might want to meet base on your current friend connection</t>
-  </si>
-  <si>
-    <t>Realtime chat, communicate with available friends</t>
-  </si>
-  <si>
-    <t>Receive notification when their friends are near by</t>
-  </si>
-  <si>
-    <t>Chat notification</t>
-  </si>
-  <si>
     <t>View chat history</t>
   </si>
   <si>
@@ -246,23 +198,173 @@
     <t>Design ERD</t>
   </si>
   <si>
-    <t>Show current location map and display friends which nearby user.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Web </t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>Report 1</t>
+  </si>
+  <si>
+    <t>Report 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Related Features</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User Profile</t>
+  </si>
+  <si>
+    <t>Manage Friend List</t>
+  </si>
+  <si>
+    <t>Search new friend</t>
+  </si>
+  <si>
+    <t>View profile</t>
+  </si>
+  <si>
+    <t>Add new friend</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Admin, User</t>
+  </si>
+  <si>
+    <t>Unfriend / block friend</t>
+  </si>
+  <si>
+    <t>Scan Nearby Friend</t>
+  </si>
+  <si>
+    <t>View grib view nearby friend</t>
+  </si>
+  <si>
+    <t>View location map with friend position</t>
+  </si>
+  <si>
+    <t>View people nearby you by matching profile</t>
+  </si>
+  <si>
+    <t>Suggest Friend</t>
+  </si>
+  <si>
+    <t>Suggest friend use might want to meet</t>
+  </si>
+  <si>
+    <t>Update profile info: Interest, gender, location,…</t>
+  </si>
+  <si>
+    <t>Realtime chat, message with available friends</t>
+  </si>
+  <si>
+    <t>Receive notification when friends are nearby</t>
+  </si>
+  <si>
+    <t>Recommerder system to suggest friends base on user profile similarity</t>
+  </si>
+  <si>
+    <t>User management</t>
+  </si>
+  <si>
+    <t>View user of the system</t>
+  </si>
+  <si>
+    <t>Change user status</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Get current position</t>
+  </si>
+  <si>
+    <t>View friend list</t>
+  </si>
+  <si>
+    <t>11,19</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>Get user details and their friends</t>
+  </si>
+  <si>
+    <t>Android Location API using Google Play Services</t>
+  </si>
+  <si>
+    <t>Design Neo4j Database</t>
+  </si>
+  <si>
+    <t>Allow user update, their profile</t>
+  </si>
+  <si>
+    <t>25/5/2015</t>
+  </si>
+  <si>
+    <t>&lt;Server&gt; Webservice for retreive user information</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; Notification function</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; Get current user position function</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; Send, receive chat/message function</t>
+  </si>
+  <si>
+    <t>login, register , and profile info</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; Register function</t>
+  </si>
+  <si>
+    <t>Design register UI</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; Profile management function</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; Integrating google plus login function</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; Integrating facebook login function</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; JSON parser function</t>
+  </si>
+  <si>
+    <t>Design Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Continue from SPRINT 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +420,29 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF383838"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,7 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -402,19 +525,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -500,57 +610,39 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,8 +662,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,7 +867,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT1!$B$29:$B$30</c:f>
+              <c:f>SPRINT1!$B$27:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -775,15 +881,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT1!$C$29:$C$30</c:f>
+              <c:f>SPRINT1!$C$27:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,6 +1036,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -981,7 +1088,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT1!$B$53:$B$56</c:f>
+              <c:f>SPRINT1!$B$51:$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1001,21 +1108,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT1!$E$53:$E$56</c:f>
+              <c:f>SPRINT1!$E$51:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,11 +1138,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="135158512"/>
-        <c:axId val="135159072"/>
+        <c:axId val="2070589360"/>
+        <c:axId val="2070590992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135158512"/>
+        <c:axId val="2070589360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135159072"/>
+        <c:crossAx val="2070590992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1086,7 +1193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135159072"/>
+        <c:axId val="2070590992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1138,7 +1245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135158512"/>
+        <c:crossAx val="2070589360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1227,6 +1334,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1344,12 +1452,14 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT2!$B$26:$B$27</c:f>
+              <c:f>SPRINT2!$B$32:$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1363,7 +1473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT2!$C$26:$C$27</c:f>
+              <c:f>SPRINT2!$C$32:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1569,7 +1679,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT2!$B$50:$B$53</c:f>
+              <c:f>SPRINT2!$B$56:$B$59</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1589,7 +1699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT2!$E$50:$E$53</c:f>
+              <c:f>SPRINT2!$E$56:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1619,11 +1729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="135162992"/>
-        <c:axId val="135163552"/>
+        <c:axId val="2113308304"/>
+        <c:axId val="2113307760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135162992"/>
+        <c:axId val="2113308304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,7 +1776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135163552"/>
+        <c:crossAx val="2113307760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1674,7 +1784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135163552"/>
+        <c:axId val="2113307760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1726,7 +1836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135162992"/>
+        <c:crossAx val="2113308304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2207,11 +2317,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="135167472"/>
-        <c:axId val="135168032"/>
+        <c:axId val="2113295248"/>
+        <c:axId val="2113295792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135167472"/>
+        <c:axId val="2113295248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,7 +2364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135168032"/>
+        <c:crossAx val="2113295792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2262,7 +2372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135168032"/>
+        <c:axId val="2113295792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2314,7 +2424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135167472"/>
+        <c:crossAx val="2113295248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5675,13 +5785,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2609021</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5705,13 +5815,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5740,13 +5850,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2867024</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5772,13 +5882,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6159,189 +6269,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="81.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <v>1</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="30" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="7">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>18</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
-        <v>2</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
-        <v>3</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>4</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
-        <v>5</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>6</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>7</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>19</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>21</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="7">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6350,12 +6728,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF0070C0"/>
+    <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6369,11 +6747,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6382,9 +6760,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6393,41 +6771,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -6510,259 +6888,255 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+    <row r="9" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
         <v>3</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35" t="s">
+      <c r="B9" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="32">
+        <v>4</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33">
+        <v>4</v>
+      </c>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>4</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="32">
+        <v>4</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33">
+        <v>2</v>
+      </c>
+      <c r="M10" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>5</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F11" s="50">
+        <v>14</v>
+      </c>
+      <c r="G11" s="51">
+        <v>5</v>
+      </c>
+      <c r="H11" s="51">
+        <v>2</v>
+      </c>
+      <c r="I11" s="51">
+        <v>2</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51">
+        <v>5</v>
+      </c>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>6</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="32">
+        <v>14</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33">
+        <v>3</v>
+      </c>
+      <c r="M12" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50">
+        <v>7</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="50">
+        <v>14</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51">
+        <v>2</v>
+      </c>
+      <c r="I13" s="51">
+        <v>2</v>
+      </c>
+      <c r="J13" s="51">
+        <v>2</v>
+      </c>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51">
         <v>4</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36">
+      <c r="M13" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50">
+        <v>8</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="50">
+        <v>14</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51">
+        <v>2</v>
+      </c>
+      <c r="I14" s="51">
+        <v>2</v>
+      </c>
+      <c r="J14" s="51">
+        <v>2</v>
+      </c>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51">
         <v>4</v>
       </c>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="M14" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>9</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="32">
+        <v>14</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33">
         <v>4</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="35">
+      <c r="J15" s="33">
+        <v>6</v>
+      </c>
+      <c r="K15" s="33">
         <v>4</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36">
+      <c r="L15" s="33"/>
+      <c r="M15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>10</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="32">
+        <v>14</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33">
         <v>2</v>
       </c>
-      <c r="M10" s="36"/>
-    </row>
-    <row r="11" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
-        <v>5</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="35">
-        <v>14</v>
-      </c>
-      <c r="G11" s="36">
-        <v>5</v>
-      </c>
-      <c r="H11" s="36">
-        <v>2</v>
-      </c>
-      <c r="I11" s="36">
-        <v>2</v>
-      </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>6</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="38">
-        <v>14</v>
-      </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-    </row>
-    <row r="13" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
-        <v>7</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="35">
-        <v>14</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36">
-        <v>2</v>
-      </c>
-      <c r="I13" s="36">
-        <v>2</v>
-      </c>
-      <c r="J13" s="36">
-        <v>2</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36">
+      <c r="L16" s="33">
         <v>4</v>
       </c>
-      <c r="M13" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
-        <v>8</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="35">
-        <v>14</v>
-      </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36">
-        <v>2</v>
-      </c>
-      <c r="I14" s="36">
-        <v>2</v>
-      </c>
-      <c r="J14" s="36">
-        <v>2</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36">
-        <v>4</v>
-      </c>
-      <c r="M14" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
-        <v>9</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="35">
-        <v>14</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36">
-        <v>4</v>
-      </c>
-      <c r="J15" s="36">
-        <v>6</v>
-      </c>
-      <c r="K15" s="36">
-        <v>4</v>
-      </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
-        <v>10</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="35">
-        <v>14</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36">
-        <v>2</v>
-      </c>
-      <c r="L16" s="36">
-        <v>4</v>
-      </c>
-      <c r="M16" s="36">
+      <c r="M16" s="33">
         <v>2</v>
       </c>
     </row>
@@ -6770,8 +7144,8 @@
       <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>76</v>
+      <c r="B17" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
@@ -6797,186 +7171,142 @@
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
     </row>
-    <row r="18" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
-        <v>12</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7">
+        <f>COUNT(A7:A17)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B48" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36">
+      <c r="C51" s="7">
+        <v>4</v>
+      </c>
+      <c r="D51" s="7">
+        <v>4</v>
+      </c>
+      <c r="E51" s="14">
+        <f>D51/C51</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="7">
         <v>2</v>
       </c>
-      <c r="K18" s="36">
-        <v>2</v>
-      </c>
-      <c r="L18" s="36">
-        <v>2</v>
-      </c>
-      <c r="M18" s="36"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="7">
-        <f>COUNT(A7:A19)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B50" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>23</v>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" ref="E52:E54" si="0">D52/C52</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" s="7">
         <v>0</v>
       </c>
-      <c r="E53" s="14" t="e">
-        <f>D53/C53</f>
-        <v>#DIV/0!</v>
+      <c r="E53" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54" s="7">
-        <v>0</v>
-      </c>
-      <c r="E54" s="14" t="e">
-        <f t="shared" ref="E54:E56" si="0">D54/C54</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0</v>
-      </c>
-      <c r="D55" s="7">
-        <v>0</v>
-      </c>
-      <c r="E55" s="14" t="e">
+        <v>3</v>
+      </c>
+      <c r="E54" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0</v>
-      </c>
-      <c r="D56" s="7">
-        <v>0</v>
-      </c>
-      <c r="E56" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A21:C22"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="D5:D6"/>
@@ -6985,10 +7315,10 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:B56 D7:D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51:B54 D7:D17">
       <formula1>Member</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E17">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -7000,10 +7330,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7017,11 +7350,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7030,83 +7363,93 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="5">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="31">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="31">
         <v>2</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="31">
         <v>3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="31">
         <v>4</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="31">
         <v>5</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="31">
         <v>6</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -7116,14 +7459,24 @@
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="28">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -7133,14 +7486,22 @@
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="28">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -7150,14 +7511,22 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="28">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -7166,15 +7535,25 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>14</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -7184,14 +7563,22 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="28">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -7200,15 +7587,23 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
         <v>7</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>14</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -7218,14 +7613,22 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="28">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7">
+        <v>12</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -7235,14 +7638,24 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="28">
         <v>9</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>12</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -7252,14 +7665,22 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="28">
         <v>10</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7268,133 +7689,291 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+    <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>11</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>12</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7">
+        <v>8</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>13</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53">
+        <v>14</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="50">
+        <v>4</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+    </row>
+    <row r="21" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
+        <v>15</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="50">
+        <v>4</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
         <v>16</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="12" t="s">
+      <c r="B22" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="50">
+        <v>4</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="C29" s="30"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="7">
-        <f>COUNT(A7:A16)</f>
+      <c r="C31" s="7">
+        <f>COUNT(A7:A22)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="4">
+      <c r="E55" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="D56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B47" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7">
+      <c r="E56" s="14" t="e">
+        <f>D56/C56</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="7">
         <v>0</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D57" s="7">
         <v>0</v>
       </c>
-      <c r="E50" s="14" t="e">
-        <f>D50/C50</f>
+      <c r="E57" s="14" t="e">
+        <f t="shared" ref="E57:E59" si="0">D57/C57</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="7">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="7">
         <v>0</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D58" s="7">
         <v>0</v>
       </c>
-      <c r="E51" s="14" t="e">
-        <f t="shared" ref="E51:E53" si="0">D51/C51</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0</v>
-      </c>
-      <c r="D52" s="7">
-        <v>0</v>
-      </c>
-      <c r="E52" s="14" t="e">
+      <c r="E58" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C59" s="7">
         <v>0</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D59" s="7">
         <v>0</v>
       </c>
-      <c r="E53" s="14" t="e">
+      <c r="E59" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -7403,7 +7982,7 @@
   <mergeCells count="9">
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="A26:C27"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -7412,15 +7991,16 @@
     <mergeCell ref="E5:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 B50:B53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B59 D7:D22">
       <formula1>Member</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E22">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7443,11 +8023,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7456,9 +8036,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7467,41 +8047,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -7695,16 +8275,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -7855,7 +8435,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7877,7 +8457,7 @@
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="49" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7888,7 +8468,7 @@
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -7897,7 +8477,7 @@
       <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="49" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7908,7 +8488,7 @@
       <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="49"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -683,6 +683,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,26 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,11 +1182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1341130480"/>
-        <c:axId val="-1341127216"/>
+        <c:axId val="-1627893136"/>
+        <c:axId val="-1627906192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1341130480"/>
+        <c:axId val="-1627893136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1341127216"/>
+        <c:crossAx val="-1627906192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1237,7 +1237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1341127216"/>
+        <c:axId val="-1627906192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1289,7 +1289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1341130480"/>
+        <c:crossAx val="-1627893136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1774,11 +1774,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1341128848"/>
-        <c:axId val="-1341128304"/>
+        <c:axId val="-1627904016"/>
+        <c:axId val="-1396030496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1341128848"/>
+        <c:axId val="-1627904016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1341128304"/>
+        <c:crossAx val="-1396030496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,7 +1829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1341128304"/>
+        <c:axId val="-1396030496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1881,7 +1881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1341128848"/>
+        <c:crossAx val="-1627904016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2362,11 +2362,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1341122864"/>
-        <c:axId val="-1341122320"/>
+        <c:axId val="-1396032672"/>
+        <c:axId val="-1396023424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1341122864"/>
+        <c:axId val="-1396032672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1341122320"/>
+        <c:crossAx val="-1396023424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2417,7 +2417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1341122320"/>
+        <c:axId val="-1396023424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2469,7 +2469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1341122864"/>
+        <c:crossAx val="-1396032672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6792,11 +6792,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6805,9 +6805,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6816,41 +6816,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -7217,16 +7217,16 @@
       <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -7380,8 +7380,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7395,11 +7395,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7408,9 +7408,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7419,41 +7419,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="31">
         <v>1</v>
       </c>
@@ -7477,19 +7477,19 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+      <c r="A7" s="57">
         <v>1</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="32">
@@ -7504,19 +7504,19 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
+      <c r="A8" s="57">
         <v>2</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="32">
@@ -7531,17 +7531,17 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65">
+      <c r="A9" s="57">
         <v>3</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="65" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="32">
@@ -7556,17 +7556,17 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65">
+      <c r="A10" s="57">
         <v>4</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="65" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="32">
@@ -7599,63 +7599,75 @@
       <c r="F11" s="51">
         <v>14</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="G11" s="51">
+        <v>6</v>
+      </c>
+      <c r="H11" s="51">
+        <v>4</v>
+      </c>
+      <c r="I11" s="51">
+        <v>3</v>
+      </c>
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
     </row>
-    <row r="12" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61">
+    <row r="12" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
         <v>6</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="61" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="63">
+      <c r="E12" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="55">
         <v>4</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-    </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="65">
+      <c r="G12" s="55">
+        <v>0</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+    </row>
+    <row r="13" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49">
         <v>7</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="65" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="32">
+      <c r="E13" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="49">
         <v>14</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49">
+        <v>1</v>
+      </c>
+      <c r="I13" s="49">
+        <v>4</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
@@ -7683,19 +7695,19 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+      <c r="A15" s="57">
         <v>9</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="32">
@@ -7897,16 +7909,16 @@
       <c r="M22" s="40"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
@@ -8072,11 +8084,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8085,9 +8097,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8096,41 +8108,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -8324,16 +8336,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -8506,7 +8518,7 @@
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="68" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8517,7 +8529,7 @@
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="68"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -8526,7 +8538,7 @@
       <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="68" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8537,7 +8549,7 @@
       <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="68"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="11" r:id="rId1"/>
@@ -1182,11 +1182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1627893136"/>
-        <c:axId val="-1627906192"/>
+        <c:axId val="156859328"/>
+        <c:axId val="156859888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1627893136"/>
+        <c:axId val="156859328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1627906192"/>
+        <c:crossAx val="156859888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1237,7 +1237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1627906192"/>
+        <c:axId val="156859888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1289,7 +1289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1627893136"/>
+        <c:crossAx val="156859328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1378,7 +1378,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1496,9 +1495,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1672,7 +1669,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1774,11 +1770,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1627904016"/>
-        <c:axId val="-1396030496"/>
+        <c:axId val="157797664"/>
+        <c:axId val="157798224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1627904016"/>
+        <c:axId val="157797664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1396030496"/>
+        <c:crossAx val="157798224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,7 +1825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1396030496"/>
+        <c:axId val="157798224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1881,7 +1877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1627904016"/>
+        <c:crossAx val="157797664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2362,11 +2358,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1396032672"/>
-        <c:axId val="-1396023424"/>
+        <c:axId val="157802144"/>
+        <c:axId val="157802704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1396032672"/>
+        <c:axId val="157802144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1396023424"/>
+        <c:crossAx val="157802704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2417,7 +2413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1396023424"/>
+        <c:axId val="157802704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2469,7 +2465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1396032672"/>
+        <c:crossAx val="157802144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6316,8 +6312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7380,8 +7376,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7681,14 +7677,20 @@
         <v>8</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7">
         <v>12</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="G14" s="7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -7738,9 +7740,15 @@
       <c r="F16" s="51">
         <v>8</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="G16" s="51">
+        <v>6</v>
+      </c>
+      <c r="H16" s="51">
+        <v>5</v>
+      </c>
+      <c r="I16" s="51">
+        <v>3</v>
+      </c>
       <c r="J16" s="51"/>
       <c r="K16" s="51"/>
       <c r="L16" s="51"/>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -790,6 +790,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -907,7 +908,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1081,6 +1084,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1182,11 +1186,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="156859328"/>
-        <c:axId val="156859888"/>
+        <c:axId val="-147679136"/>
+        <c:axId val="-147678592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156859328"/>
+        <c:axId val="-147679136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156859888"/>
+        <c:crossAx val="-147678592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1237,7 +1241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156859888"/>
+        <c:axId val="-147678592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1289,7 +1293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156859328"/>
+        <c:crossAx val="-147679136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1770,11 +1774,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="157797664"/>
-        <c:axId val="157798224"/>
+        <c:axId val="-147671520"/>
+        <c:axId val="-147673152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157797664"/>
+        <c:axId val="-147671520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +1821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157798224"/>
+        <c:crossAx val="-147673152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1825,7 +1829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157798224"/>
+        <c:axId val="-147673152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1877,7 +1881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157797664"/>
+        <c:crossAx val="-147671520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2358,11 +2362,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="157802144"/>
-        <c:axId val="157802704"/>
+        <c:axId val="-147666080"/>
+        <c:axId val="-147956464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157802144"/>
+        <c:axId val="-147666080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157802704"/>
+        <c:crossAx val="-147956464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2413,7 +2417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157802704"/>
+        <c:axId val="-147956464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2465,7 +2469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157802144"/>
+        <c:crossAx val="-147666080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6313,7 +6317,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A20" sqref="A20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6774,7 +6778,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6887,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -6915,16 +6919,16 @@
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I8" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
@@ -6952,7 +6956,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="33"/>
     </row>
@@ -6982,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -7003,18 +7007,18 @@
         <v>14</v>
       </c>
       <c r="G11" s="41">
+        <v>9</v>
+      </c>
+      <c r="H11" s="41">
+        <v>7</v>
+      </c>
+      <c r="I11" s="41">
         <v>5</v>
-      </c>
-      <c r="H11" s="41">
-        <v>2</v>
-      </c>
-      <c r="I11" s="41">
-        <v>2</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
       <c r="L11" s="41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M11" s="41"/>
     </row>
@@ -7041,10 +7045,10 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M12" s="33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -7066,20 +7070,20 @@
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="41">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I13" s="41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J13" s="41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="41">
         <v>4</v>
       </c>
       <c r="M13" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -7101,20 +7105,20 @@
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="41">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I14" s="41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J14" s="41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="41">
         <v>4</v>
       </c>
       <c r="M14" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -7137,17 +7141,17 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33">
+        <v>10</v>
+      </c>
+      <c r="J15" s="33">
         <v>4</v>
       </c>
-      <c r="J15" s="33">
-        <v>6</v>
-      </c>
       <c r="K15" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L15" s="33"/>
       <c r="M15" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -7172,13 +7176,13 @@
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L16" s="33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M16" s="33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -7202,10 +7206,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="19">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I17" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -7376,8 +7380,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7655,10 +7659,10 @@
       </c>
       <c r="G13" s="49"/>
       <c r="H13" s="49">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I13" s="49">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
@@ -7773,9 +7777,15 @@
       <c r="F17" s="7">
         <v>20</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="G17" s="7">
+        <v>18</v>
+      </c>
+      <c r="H17" s="7">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7">
+        <v>12</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -7799,10 +7809,14 @@
         <v>8</v>
       </c>
       <c r="G18" s="47">
+        <v>6</v>
+      </c>
+      <c r="H18" s="47">
+        <v>4</v>
+      </c>
+      <c r="I18" s="47">
         <v>2</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
@@ -7828,8 +7842,12 @@
       <c r="G19" s="47">
         <v>2</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="H19" s="47">
+        <v>1</v>
+      </c>
+      <c r="I19" s="47">
+        <v>0</v>
+      </c>
       <c r="J19" s="47"/>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -790,7 +790,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -908,9 +907,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1084,7 +1081,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1186,11 +1182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-147679136"/>
-        <c:axId val="-147678592"/>
+        <c:axId val="706446304"/>
+        <c:axId val="706447936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-147679136"/>
+        <c:axId val="706446304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147678592"/>
+        <c:crossAx val="706447936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1241,7 +1237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-147678592"/>
+        <c:axId val="706447936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1293,7 +1289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147679136"/>
+        <c:crossAx val="706446304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1382,6 +1378,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1499,7 +1496,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1673,6 +1672,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1774,11 +1774,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-147671520"/>
-        <c:axId val="-147673152"/>
+        <c:axId val="859893344"/>
+        <c:axId val="859897696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-147671520"/>
+        <c:axId val="859893344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147673152"/>
+        <c:crossAx val="859897696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,7 +1829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-147673152"/>
+        <c:axId val="859897696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1881,7 +1881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147671520"/>
+        <c:crossAx val="859893344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2362,11 +2362,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-147666080"/>
-        <c:axId val="-147956464"/>
+        <c:axId val="859903680"/>
+        <c:axId val="859895520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-147666080"/>
+        <c:axId val="859903680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147956464"/>
+        <c:crossAx val="859895520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2417,7 +2417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-147956464"/>
+        <c:axId val="859895520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2469,7 +2469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147666080"/>
+        <c:crossAx val="859903680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7380,8 +7380,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7580,38 +7580,40 @@
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
     </row>
-    <row r="11" spans="1:13" s="52" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+    <row r="11" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
         <v>5</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="51">
+      <c r="E11" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="53">
         <v>14</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="53">
         <v>6</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="53">
         <v>4</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="53">
         <v>3</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="J11" s="53">
+        <v>0</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
@@ -7664,7 +7666,9 @@
       <c r="I13" s="49">
         <v>9</v>
       </c>
-      <c r="J13" s="49"/>
+      <c r="J13" s="49">
+        <v>6</v>
+      </c>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
       <c r="M13" s="49"/>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -1182,11 +1182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="706446304"/>
-        <c:axId val="706447936"/>
+        <c:axId val="128438224"/>
+        <c:axId val="128438784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="706446304"/>
+        <c:axId val="128438224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706447936"/>
+        <c:crossAx val="128438784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1237,7 +1237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="706447936"/>
+        <c:axId val="128438784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1289,7 +1289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706446304"/>
+        <c:crossAx val="128438224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1774,11 +1774,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="859893344"/>
-        <c:axId val="859897696"/>
+        <c:axId val="128442704"/>
+        <c:axId val="128443264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="859893344"/>
+        <c:axId val="128442704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="859897696"/>
+        <c:crossAx val="128443264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,7 +1829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="859897696"/>
+        <c:axId val="128443264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1881,7 +1881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="859893344"/>
+        <c:crossAx val="128442704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2362,11 +2362,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="859903680"/>
-        <c:axId val="859895520"/>
+        <c:axId val="130713536"/>
+        <c:axId val="130714096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="859903680"/>
+        <c:axId val="130713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="859895520"/>
+        <c:crossAx val="130714096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2417,7 +2417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="859895520"/>
+        <c:axId val="130714096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2469,7 +2469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="859903680"/>
+        <c:crossAx val="130713536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7380,15 +7380,15 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -7490,7 +7490,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F7" s="32">
         <v>10</v>
@@ -7499,9 +7499,15 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
+      <c r="K7" s="32">
+        <v>7</v>
+      </c>
+      <c r="L7" s="32">
+        <v>4</v>
+      </c>
+      <c r="M7" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
@@ -7517,13 +7523,17 @@
         <v>7</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F8" s="32">
         <v>10</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="32">
+        <v>5</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
@@ -7542,14 +7552,16 @@
         <v>7</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F9" s="32">
         <v>4</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="I9" s="32">
+        <v>4</v>
+      </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
@@ -7567,15 +7579,19 @@
         <v>7</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F10" s="32">
         <v>8</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="I10" s="32">
+        <v>6</v>
+      </c>
+      <c r="J10" s="32">
+        <v>0</v>
+      </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
   <si>
     <t>No.</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Continue from SPRINT 1</t>
+  </si>
+  <si>
+    <t>Continue from SPRINT 1, Transfer from HungLV</t>
   </si>
 </sst>
 </file>
@@ -427,13 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF383838"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -447,8 +443,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,24 +505,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -563,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -628,9 +612,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -650,57 +631,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,11 +669,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,11 +1149,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="128438224"/>
-        <c:axId val="128438784"/>
+        <c:axId val="317198176"/>
+        <c:axId val="317209056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128438224"/>
+        <c:axId val="317198176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128438784"/>
+        <c:crossAx val="317209056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1237,7 +1204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128438784"/>
+        <c:axId val="317209056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1289,7 +1256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128438224"/>
+        <c:crossAx val="317198176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1672,7 +1639,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1774,11 +1740,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="128442704"/>
-        <c:axId val="128443264"/>
+        <c:axId val="317205792"/>
+        <c:axId val="471072592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128442704"/>
+        <c:axId val="317205792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128443264"/>
+        <c:crossAx val="471072592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,7 +1795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128443264"/>
+        <c:axId val="471072592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1881,7 +1847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128442704"/>
+        <c:crossAx val="317205792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2362,11 +2328,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="130713536"/>
-        <c:axId val="130714096"/>
+        <c:axId val="471065520"/>
+        <c:axId val="471074224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130713536"/>
+        <c:axId val="471065520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2375,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130714096"/>
+        <c:crossAx val="471074224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2417,7 +2383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130714096"/>
+        <c:axId val="471074224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2469,7 +2435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130713536"/>
+        <c:crossAx val="471065520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6333,25 +6299,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6386,17 +6352,17 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -6415,7 +6381,7 @@
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="7">
@@ -6457,17 +6423,17 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -6530,17 +6496,17 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -6601,17 +6567,17 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -6629,17 +6595,17 @@
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -6672,23 +6638,23 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>18</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="7">
@@ -6700,21 +6666,21 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>19</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="7"/>
@@ -6724,17 +6690,17 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
@@ -6792,11 +6758,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6805,9 +6771,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6816,41 +6782,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -6933,255 +6899,255 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+    <row r="9" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>3</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>4</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32">
         <v>0</v>
       </c>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <v>4</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>4</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32">
         <v>2</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+    <row r="11" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>5</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="38">
         <v>14</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="39">
         <v>9</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="39">
         <v>7</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="39">
         <v>5</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41">
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39">
         <v>0</v>
       </c>
-      <c r="M11" s="41"/>
-    </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>6</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>14</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33">
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32">
         <v>11</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+    <row r="13" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <v>7</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <v>14</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41">
+      <c r="G13" s="39"/>
+      <c r="H13" s="39">
         <v>12</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="39">
         <v>10</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="39">
         <v>8</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39">
         <v>4</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+    <row r="14" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <v>8</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="38">
         <v>14</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
+      <c r="G14" s="39"/>
+      <c r="H14" s="39">
         <v>12</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="39">
         <v>10</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="39">
         <v>8</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39">
         <v>4</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+    <row r="15" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
         <v>9</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <v>14</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32">
         <v>10</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="32">
         <v>4</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="32">
         <v>1</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33">
+      <c r="L15" s="32"/>
+      <c r="M15" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+    <row r="16" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <v>10</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <v>14</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33">
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32">
         <v>12</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="32">
         <v>8</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="32">
         <v>0</v>
       </c>
     </row>
@@ -7189,7 +7155,7 @@
       <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="7"/>
@@ -7217,16 +7183,16 @@
       <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -7378,10 +7344,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7394,12 +7360,12 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7407,10 +7373,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7418,65 +7384,85 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="31">
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>2</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <v>3</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="30">
         <v>4</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="30">
         <v>5</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <v>6</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+    </row>
+    <row r="7" spans="1:23" s="60" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>1</v>
       </c>
@@ -7492,28 +7478,28 @@
       <c r="E7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="59">
         <v>10</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59">
         <v>7</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="59">
         <v>4</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="59">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
         <v>2</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="61" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="58" t="s">
@@ -7523,28 +7509,28 @@
         <v>7</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="32">
+        <v>19</v>
+      </c>
+      <c r="F8" s="59">
         <v>10</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="59">
         <v>5</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="59">
         <v>0</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+    </row>
+    <row r="9" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="58" t="s">
         <v>104</v>
       </c>
       <c r="C9" s="58"/>
@@ -7552,26 +7538,26 @@
         <v>7</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="32">
+        <v>19</v>
+      </c>
+      <c r="F9" s="59">
         <v>4</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59">
         <v>4</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+    </row>
+    <row r="10" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="58" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="58"/>
@@ -7579,409 +7565,433 @@
         <v>7</v>
       </c>
       <c r="E10" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="59">
+        <v>8</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59">
+        <v>6</v>
+      </c>
+      <c r="J10" s="59">
+        <v>0</v>
+      </c>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+    </row>
+    <row r="11" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>5</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="43">
+        <v>14</v>
+      </c>
+      <c r="G11" s="43">
+        <v>6</v>
+      </c>
+      <c r="H11" s="43">
+        <v>4</v>
+      </c>
+      <c r="I11" s="43">
+        <v>3</v>
+      </c>
+      <c r="J11" s="43">
+        <v>0</v>
+      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+    </row>
+    <row r="12" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="31">
+        <v>4</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57">
+        <v>7</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="57">
+        <v>14</v>
+      </c>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57">
+        <v>13</v>
+      </c>
+      <c r="I13" s="57">
+        <v>9</v>
+      </c>
+      <c r="J13" s="57">
+        <v>6</v>
+      </c>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+    </row>
+    <row r="14" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
+        <v>8</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="59">
+        <v>12</v>
+      </c>
+      <c r="G14" s="59">
+        <v>10</v>
+      </c>
+      <c r="H14" s="59">
+        <v>8</v>
+      </c>
+      <c r="I14" s="59">
+        <v>6</v>
+      </c>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+    </row>
+    <row r="15" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>9</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="38">
+        <v>12</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
+        <v>10</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="31">
+        <v>8</v>
+      </c>
+      <c r="G16" s="31">
+        <v>6</v>
+      </c>
+      <c r="H16" s="31">
+        <v>5</v>
+      </c>
+      <c r="I16" s="31">
+        <v>3</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="1:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>11</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="31">
+        <v>20</v>
+      </c>
+      <c r="G17" s="31">
         <v>18</v>
       </c>
-      <c r="F10" s="32">
+      <c r="H17" s="31">
+        <v>16</v>
+      </c>
+      <c r="I17" s="31">
+        <v>12</v>
+      </c>
+      <c r="J17" s="31">
         <v>8</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32">
+      <c r="K17" s="31">
         <v>6</v>
       </c>
-      <c r="J10" s="32">
+      <c r="L17" s="31">
+        <v>3</v>
+      </c>
+      <c r="M17" s="31">
         <v>0</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="11" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+    </row>
+    <row r="18" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>12</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="53" t="s">
+      <c r="E18" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="31">
+        <v>8</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31">
         <v>6</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="K18" s="31">
+        <v>4</v>
+      </c>
+      <c r="L18" s="31">
+        <v>2</v>
+      </c>
+      <c r="M18" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>13</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F19" s="31">
+        <v>4</v>
+      </c>
+      <c r="G19" s="31">
+        <v>2</v>
+      </c>
+      <c r="H19" s="31">
+        <v>1</v>
+      </c>
+      <c r="I19" s="31">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41">
         <v>14</v>
       </c>
-      <c r="G11" s="53">
+      <c r="B20" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="53">
+      <c r="E20" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="38">
         <v>4</v>
       </c>
-      <c r="I11" s="53">
-        <v>3</v>
-      </c>
-      <c r="J11" s="53">
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
+        <v>15</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="55">
+        <v>4</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55">
         <v>0</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
-        <v>6</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="55">
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+    </row>
+    <row r="22" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41">
+        <v>16</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="38">
         <v>4</v>
       </c>
-      <c r="G12" s="55">
-        <v>0</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-    </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
-        <v>7</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="49">
-        <v>14</v>
-      </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49">
-        <v>13</v>
-      </c>
-      <c r="I13" s="49">
-        <v>9</v>
-      </c>
-      <c r="J13" s="49">
-        <v>6</v>
-      </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <v>8</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7">
-        <v>10</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57">
-        <v>9</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="32">
-        <v>12</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-    </row>
-    <row r="16" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
-        <v>10</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="51">
-        <v>8</v>
-      </c>
-      <c r="G16" s="51">
-        <v>6</v>
-      </c>
-      <c r="H16" s="51">
-        <v>5</v>
-      </c>
-      <c r="I16" s="51">
-        <v>3</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
-        <v>11</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="7">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7">
-        <v>12</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
-        <v>12</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="47">
-        <v>8</v>
-      </c>
-      <c r="G18" s="47">
-        <v>6</v>
-      </c>
-      <c r="H18" s="47">
-        <v>4</v>
-      </c>
-      <c r="I18" s="47">
-        <v>2</v>
-      </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-    </row>
-    <row r="19" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
-        <v>13</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="47">
-        <v>4</v>
-      </c>
-      <c r="G19" s="47">
-        <v>2</v>
-      </c>
-      <c r="H19" s="47">
-        <v>1</v>
-      </c>
-      <c r="I19" s="47">
-        <v>0</v>
-      </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-    </row>
-    <row r="20" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
-        <v>14</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="40">
-        <v>4</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-    </row>
-    <row r="21" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
-        <v>15</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="40">
-        <v>4</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-    </row>
-    <row r="22" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
-        <v>16</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="40">
-        <v>4</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="30"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>17</v>
       </c>
@@ -7990,7 +8000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
@@ -8007,7 +8017,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8130,11 +8140,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8143,9 +8153,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8154,41 +8164,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -8382,16 +8392,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -8564,7 +8574,7 @@
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="52" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8575,7 +8585,7 @@
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="52"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -8584,7 +8594,7 @@
       <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="52" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8595,7 +8605,7 @@
       <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="11" r:id="rId1"/>
@@ -651,6 +651,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,25 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,11 +1149,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="317198176"/>
-        <c:axId val="317209056"/>
+        <c:axId val="114902400"/>
+        <c:axId val="114902960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317198176"/>
+        <c:axId val="114902400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317209056"/>
+        <c:crossAx val="114902960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1204,7 +1204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317209056"/>
+        <c:axId val="114902960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1256,7 +1256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317198176"/>
+        <c:crossAx val="114902400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,7 +1345,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1463,9 +1462,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1740,11 +1737,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="317205792"/>
-        <c:axId val="471072592"/>
+        <c:axId val="114906880"/>
+        <c:axId val="114907440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317205792"/>
+        <c:axId val="114906880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +1784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471072592"/>
+        <c:crossAx val="114907440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1795,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471072592"/>
+        <c:axId val="114907440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1847,7 +1844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317205792"/>
+        <c:crossAx val="114906880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,11 +2325,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="471065520"/>
-        <c:axId val="471074224"/>
+        <c:axId val="114911360"/>
+        <c:axId val="114911920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="471065520"/>
+        <c:axId val="114911360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2372,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471074224"/>
+        <c:crossAx val="114911920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2383,7 +2380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471074224"/>
+        <c:axId val="114911920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2435,7 +2432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471065520"/>
+        <c:crossAx val="114911360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6758,11 +6755,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6771,9 +6768,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6782,41 +6779,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -7183,16 +7180,16 @@
       <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -7346,8 +7343,8 @@
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7361,11 +7358,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7374,9 +7371,9 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7385,33 +7382,33 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
@@ -7424,12 +7421,12 @@
       <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="30">
         <v>1</v>
       </c>
@@ -7462,125 +7459,125 @@
       <c r="V6" s="33"/>
       <c r="W6" s="33"/>
     </row>
-    <row r="7" spans="1:23" s="60" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="57">
+    <row r="7" spans="1:23" s="52" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="51">
         <v>10</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51">
         <v>7</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="51">
         <v>4</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="51">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
+    <row r="8" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49">
         <v>2</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="51">
         <v>10</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="51">
         <v>5</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="51">
         <v>0</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-    </row>
-    <row r="9" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57">
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49">
         <v>3</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="51">
         <v>4</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59">
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51">
         <v>4</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-    </row>
-    <row r="10" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+    </row>
+    <row r="10" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49">
         <v>4</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="51">
         <v>8</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59">
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51">
         <v>6</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="51">
         <v>0</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
@@ -7644,67 +7641,75 @@
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
     </row>
-    <row r="13" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57">
+    <row r="13" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49">
         <v>7</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="49">
         <v>14</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57">
+      <c r="G13" s="49"/>
+      <c r="H13" s="49">
         <v>13</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="49">
         <v>9</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="49">
         <v>6</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-    </row>
-    <row r="14" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57">
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
         <v>8</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="51">
         <v>12</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="51">
         <v>10</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="51">
         <v>8</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="51">
         <v>6</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
+      <c r="J14" s="51">
+        <v>4</v>
+      </c>
+      <c r="K14" s="51">
+        <v>2</v>
+      </c>
+      <c r="L14" s="51">
+        <v>0</v>
+      </c>
+      <c r="M14" s="51">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
@@ -7720,7 +7725,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F15" s="38">
         <v>12</v>
@@ -7728,7 +7733,9 @@
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="J15" s="38">
+        <v>10</v>
+      </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -7759,10 +7766,18 @@
       <c r="I16" s="31">
         <v>3</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
+        <v>0</v>
+      </c>
+      <c r="L16" s="31">
+        <v>0</v>
+      </c>
+      <c r="M16" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
@@ -7896,34 +7911,34 @@
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
     </row>
-    <row r="21" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+    <row r="21" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45">
         <v>15</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="47">
         <v>4</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55">
+      <c r="G21" s="47"/>
+      <c r="H21" s="47">
         <v>0</v>
       </c>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
@@ -7965,16 +7980,16 @@
       <c r="W23" s="33"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -8140,11 +8155,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8153,9 +8168,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8164,41 +8179,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -8392,16 +8407,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -8574,7 +8589,7 @@
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="61" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8585,7 +8600,7 @@
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="61"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -8594,7 +8609,7 @@
       <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="61" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8605,7 +8620,7 @@
       <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -450,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +505,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -547,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,6 +700,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,11 +1163,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114902400"/>
-        <c:axId val="114902960"/>
+        <c:axId val="1088316848"/>
+        <c:axId val="1088325552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114902400"/>
+        <c:axId val="1088316848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114902960"/>
+        <c:crossAx val="1088325552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1204,7 +1218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114902960"/>
+        <c:axId val="1088325552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1256,7 +1270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114902400"/>
+        <c:crossAx val="1088316848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1737,11 +1751,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114906880"/>
-        <c:axId val="114907440"/>
+        <c:axId val="1088313040"/>
+        <c:axId val="1088191376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114906880"/>
+        <c:axId val="1088313040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114907440"/>
+        <c:crossAx val="1088191376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1792,7 +1806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114907440"/>
+        <c:axId val="1088191376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1844,7 +1858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114906880"/>
+        <c:crossAx val="1088313040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2325,11 +2339,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114911360"/>
-        <c:axId val="114911920"/>
+        <c:axId val="1320862512"/>
+        <c:axId val="1320864688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114911360"/>
+        <c:axId val="1320862512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +2386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114911920"/>
+        <c:crossAx val="1320864688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2380,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114911920"/>
+        <c:axId val="1320864688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2432,7 +2446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114911360"/>
+        <c:crossAx val="1320862512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7343,8 +7357,8 @@
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7610,9 +7624,15 @@
       <c r="J11" s="43">
         <v>0</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="K11" s="43">
+        <v>0</v>
+      </c>
+      <c r="L11" s="43">
+        <v>0</v>
+      </c>
+      <c r="M11" s="43">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
@@ -7635,11 +7655,21 @@
         <v>0</v>
       </c>
       <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0</v>
+      </c>
+      <c r="L12" s="31">
+        <v>0</v>
+      </c>
+      <c r="M12" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
@@ -7668,9 +7698,15 @@
       <c r="J13" s="49">
         <v>6</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
+      <c r="K13" s="49">
+        <v>6</v>
+      </c>
+      <c r="L13" s="49">
+        <v>6</v>
+      </c>
+      <c r="M13" s="49">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
@@ -7884,32 +7920,46 @@
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
     </row>
-    <row r="20" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+    <row r="20" spans="1:23" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="62">
         <v>14</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="38">
+      <c r="E20" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="64">
         <v>4</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
+      <c r="G20" s="64">
+        <v>4</v>
+      </c>
+      <c r="H20" s="64">
+        <v>4</v>
+      </c>
+      <c r="I20" s="64">
+        <v>4</v>
+      </c>
+      <c r="J20" s="64">
+        <v>4</v>
+      </c>
+      <c r="K20" s="64">
+        <v>4</v>
+      </c>
+      <c r="L20" s="64">
+        <v>4</v>
+      </c>
+      <c r="M20" s="64">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="11" r:id="rId1"/>
@@ -676,6 +676,14 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,14 +708,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,11 +1163,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1088316848"/>
-        <c:axId val="1088325552"/>
+        <c:axId val="130696384"/>
+        <c:axId val="130696944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1088316848"/>
+        <c:axId val="130696384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1088325552"/>
+        <c:crossAx val="130696944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1088325552"/>
+        <c:axId val="130696944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1270,7 +1270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1088316848"/>
+        <c:crossAx val="130696384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1751,11 +1751,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1088313040"/>
-        <c:axId val="1088191376"/>
+        <c:axId val="131527088"/>
+        <c:axId val="131527648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1088313040"/>
+        <c:axId val="131527088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +1798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1088191376"/>
+        <c:crossAx val="131527648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1806,7 +1806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1088191376"/>
+        <c:axId val="131527648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1858,7 +1858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1088313040"/>
+        <c:crossAx val="131527088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2339,11 +2339,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1320862512"/>
-        <c:axId val="1320864688"/>
+        <c:axId val="131531568"/>
+        <c:axId val="131532128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1320862512"/>
+        <c:axId val="131531568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1320864688"/>
+        <c:crossAx val="131532128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1320864688"/>
+        <c:axId val="131532128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2446,7 +2446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1320862512"/>
+        <c:crossAx val="131531568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6769,11 +6769,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6782,9 +6782,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6793,41 +6793,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -7194,16 +7194,16 @@
       <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -7357,8 +7357,8 @@
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7372,11 +7372,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7385,9 +7385,9 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7396,33 +7396,33 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
@@ -7435,12 +7435,12 @@
       <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="30">
         <v>1</v>
       </c>
@@ -7772,9 +7772,15 @@
       <c r="J15" s="38">
         <v>10</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="K15" s="38">
+        <v>6</v>
+      </c>
+      <c r="L15" s="38">
+        <v>4</v>
+      </c>
+      <c r="M15" s="38">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
@@ -7920,44 +7926,44 @@
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
     </row>
-    <row r="20" spans="1:23" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
+    <row r="20" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54">
         <v>14</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="56">
         <v>4</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="56">
         <v>4</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="56">
         <v>4</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="56">
         <v>4</v>
       </c>
-      <c r="J20" s="64">
+      <c r="J20" s="56">
         <v>4</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="56">
         <v>4</v>
       </c>
-      <c r="L20" s="64">
+      <c r="L20" s="56">
         <v>4</v>
       </c>
-      <c r="M20" s="64">
+      <c r="M20" s="56">
         <v>0</v>
       </c>
     </row>
@@ -8030,16 +8036,16 @@
       <c r="W23" s="33"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -8205,11 +8211,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8218,9 +8224,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8229,41 +8235,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -8457,16 +8463,16 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -8639,7 +8645,7 @@
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="65" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8650,7 +8656,7 @@
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -8659,7 +8665,7 @@
       <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="65" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8670,7 +8676,7 @@
       <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="11" r:id="rId1"/>
     <sheet name="SPRINT1" sheetId="1" r:id="rId2"/>
     <sheet name="SPRINT2" sheetId="4" r:id="rId3"/>
     <sheet name="SPRINT3" sheetId="8" r:id="rId4"/>
-    <sheet name="Project Coreflow" sheetId="6" r:id="rId5"/>
-    <sheet name="Question" sheetId="7" r:id="rId6"/>
-    <sheet name="Member" sheetId="2" r:id="rId7"/>
-    <sheet name="TaskStatus" sheetId="3" r:id="rId8"/>
+    <sheet name="SPRINT4" sheetId="12" r:id="rId5"/>
+    <sheet name="Project Coreflow" sheetId="6" r:id="rId6"/>
+    <sheet name="Question" sheetId="7" r:id="rId7"/>
+    <sheet name="Member" sheetId="2" r:id="rId8"/>
+    <sheet name="TaskStatus" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Member">Member!$A$1:$A$4</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="120">
   <si>
     <t>No.</t>
   </si>
@@ -156,9 +157,6 @@
     <t>18/5/2015</t>
   </si>
   <si>
-    <t>ilike</t>
-  </si>
-  <si>
     <t>Realtime chat</t>
   </si>
   <si>
@@ -333,9 +331,6 @@
     <t>&lt;Client&gt; Send, receive chat/message function</t>
   </si>
   <si>
-    <t>login, register , and profile info</t>
-  </si>
-  <si>
     <t>&lt;Client&gt; Register function</t>
   </si>
   <si>
@@ -361,6 +356,36 @@
   </si>
   <si>
     <t>Continue from SPRINT 1, Transfer from HungLV</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Continue from SPRINT 2</t>
+  </si>
+  <si>
+    <t>Continue from SPRINT 2 Transfer from HungLV</t>
+  </si>
+  <si>
+    <t>System Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Server&gt; Webservice for  </t>
+  </si>
+  <si>
+    <t>Search nearby location function</t>
+  </si>
+  <si>
+    <t>Login, register , and profile info</t>
+  </si>
+  <si>
+    <t>get location khi ma nguoi do ko su dung app</t>
+  </si>
+  <si>
+    <t>get current location</t>
+  </si>
+  <si>
+    <t>Continue from SPRINT 2 transfer from KhoaVNA</t>
   </si>
 </sst>
 </file>
@@ -450,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +530,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -547,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -651,6 +688,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,25 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,11 +1219,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="317198176"/>
-        <c:axId val="317209056"/>
+        <c:axId val="-1191708112"/>
+        <c:axId val="-1191699408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317198176"/>
+        <c:axId val="-1191708112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317209056"/>
+        <c:crossAx val="-1191699408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1204,7 +1274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317209056"/>
+        <c:axId val="-1191699408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1256,7 +1326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317198176"/>
+        <c:crossAx val="-1191708112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,7 +1415,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1463,9 +1532,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1489,10 +1556,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,21 +1777,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT2!$E$56:$E$59</c:f>
+              <c:f>SPRINT2!$G$56:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.88749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.27500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.41666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,11 +1807,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="317205792"/>
-        <c:axId val="471072592"/>
+        <c:axId val="-1218288032"/>
+        <c:axId val="-1218286400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317205792"/>
+        <c:axId val="-1218288032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +1854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471072592"/>
+        <c:crossAx val="-1218286400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1795,7 +1862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471072592"/>
+        <c:axId val="-1218286400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1847,7 +1914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317205792"/>
+        <c:crossAx val="-1218288032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2058,7 +2125,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT3!$B$26:$B$27</c:f>
+              <c:f>SPRINT3!$B$29:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2072,7 +2139,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT3!$C$26:$C$27</c:f>
+              <c:f>SPRINT3!$C$29:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2278,7 +2345,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT3!$B$50:$B$53</c:f>
+              <c:f>SPRINT3!$B$53:$B$56</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2298,7 +2365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT3!$E$50:$E$53</c:f>
+              <c:f>SPRINT3!$E$53:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2328,11 +2395,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="471065520"/>
-        <c:axId val="471074224"/>
+        <c:axId val="-1066797136"/>
+        <c:axId val="-1066795504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="471065520"/>
+        <c:axId val="-1066797136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471074224"/>
+        <c:crossAx val="-1066795504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2383,7 +2450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471074224"/>
+        <c:axId val="-1066795504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2435,7 +2502,595 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471065520"/>
+        <c:crossAx val="-1066797136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Tasks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SPRINT4!$B$26:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Finished</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inprocess</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPRINT4!$C$26:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71150451021208549"/>
+          <c:y val="0.417339059890241"/>
+          <c:w val="0.24251847829366158"/>
+          <c:h val="0.16568519844110396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Team</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SPRINT4!$B$50:$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ThangPV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KhuongMH</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HungLV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KhoaVNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPRINT4!$E$50:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1066799856"/>
+        <c:axId val="-1066798224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1066799856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1066798224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1066798224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1066799856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2724,6 +3379,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -5288,6 +6023,1028 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5925,6 +7682,75 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2867024</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6300,22 +8126,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>63</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>4</v>
@@ -6326,11 +8152,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -6341,11 +8167,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -6354,11 +8180,11 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -6369,7 +8195,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -6382,7 +8208,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -6397,7 +8223,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -6412,10 +8238,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -6425,11 +8251,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
@@ -6440,7 +8266,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
@@ -6455,7 +8281,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
@@ -6470,7 +8296,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="7">
         <v>6</v>
@@ -6485,7 +8311,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="7">
         <v>6</v>
@@ -6498,11 +8324,11 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -6513,7 +8339,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6526,7 +8352,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="7">
         <v>11</v>
@@ -6541,7 +8367,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="7">
         <v>11</v>
@@ -6556,10 +8382,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -6569,11 +8395,11 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -6584,7 +8410,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -6597,11 +8423,11 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -6612,7 +8438,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="7">
         <v>8</v>
@@ -6627,7 +8453,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="7">
         <v>16</v>
@@ -6640,11 +8466,11 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -6655,7 +8481,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="7">
         <v>11</v>
@@ -6668,7 +8494,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -6681,7 +8507,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -6692,11 +8518,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -6707,7 +8533,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -6720,7 +8546,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="7">
         <v>20</v>
@@ -6744,7 +8570,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6758,11 +8584,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6771,9 +8597,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6782,41 +8608,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -6904,7 +8730,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31" t="s">
@@ -6931,7 +8757,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
@@ -6993,7 +8819,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
@@ -7022,7 +8848,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38" t="s">
@@ -7057,7 +8883,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
@@ -7092,7 +8918,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31" t="s">
@@ -7156,7 +8982,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
@@ -7183,16 +9009,16 @@
       <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -7346,8 +9172,8 @@
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7361,11 +9187,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7374,44 +9200,44 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
@@ -7424,12 +9250,12 @@
       <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="30">
         <v>1</v>
       </c>
@@ -7462,135 +9288,131 @@
       <c r="V6" s="33"/>
       <c r="W6" s="33"/>
     </row>
-    <row r="7" spans="1:23" s="60" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="57">
+    <row r="7" spans="1:23" s="52" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="57" t="s">
+      <c r="B7" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="51">
         <v>10</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51">
         <v>7</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="51">
         <v>4</v>
       </c>
-      <c r="M7" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
+      <c r="M7" s="51"/>
+    </row>
+    <row r="8" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49">
         <v>2</v>
       </c>
-      <c r="B8" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="57" t="s">
+      <c r="B8" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="51">
         <v>10</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="51">
         <v>5</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <v>3</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="58">
+        <v>4</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58">
+        <v>4</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58">
         <v>0</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-    </row>
-    <row r="9" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57">
-        <v>3</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="57" t="s">
+    </row>
+    <row r="10" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49">
+        <v>4</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="59">
-        <v>4</v>
-      </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59">
-        <v>4</v>
-      </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-    </row>
-    <row r="10" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57">
-        <v>4</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="59">
+      <c r="F10" s="51">
         <v>8</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59">
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51">
         <v>6</v>
       </c>
-      <c r="J10" s="59">
-        <v>0</v>
-      </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>5</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>6</v>
@@ -7622,7 +9444,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="43" t="s">
@@ -7644,77 +9466,75 @@
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
     </row>
-    <row r="13" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57">
+    <row r="13" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49">
         <v>7</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57" t="s">
+      <c r="B13" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="49">
         <v>14</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57">
+      <c r="G13" s="49"/>
+      <c r="H13" s="49">
         <v>13</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="49">
         <v>9</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
+        <v>8</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="51">
+        <v>12</v>
+      </c>
+      <c r="G14" s="51">
+        <v>10</v>
+      </c>
+      <c r="H14" s="51">
+        <v>8</v>
+      </c>
+      <c r="I14" s="51">
         <v>6</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-    </row>
-    <row r="14" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57">
-        <v>8</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="59">
-        <v>12</v>
-      </c>
-      <c r="G14" s="59">
-        <v>10</v>
-      </c>
-      <c r="H14" s="59">
-        <v>8</v>
-      </c>
-      <c r="I14" s="59">
-        <v>6</v>
-      </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>9</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>8</v>
@@ -7738,7 +9558,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="43" t="s">
@@ -7759,50 +9579,50 @@
       <c r="I16" s="31">
         <v>3</v>
       </c>
-      <c r="J16" s="31"/>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
     </row>
-    <row r="17" spans="1:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+    <row r="17" spans="1:23" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
         <v>11</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="43" t="s">
+      <c r="B17" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="62">
+        <v>20</v>
+      </c>
+      <c r="G17" s="62">
+        <v>18</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62">
+        <v>16</v>
+      </c>
+      <c r="J17" s="62">
+        <v>12</v>
+      </c>
+      <c r="K17" s="62">
         <v>10</v>
       </c>
-      <c r="F17" s="31">
-        <v>20</v>
-      </c>
-      <c r="G17" s="31">
-        <v>18</v>
-      </c>
-      <c r="H17" s="31">
-        <v>16</v>
-      </c>
-      <c r="I17" s="31">
-        <v>12</v>
-      </c>
-      <c r="J17" s="31">
+      <c r="L17" s="62">
+        <v>9</v>
+      </c>
+      <c r="M17" s="62">
         <v>8</v>
-      </c>
-      <c r="K17" s="31">
-        <v>6</v>
-      </c>
-      <c r="L17" s="31">
-        <v>3</v>
-      </c>
-      <c r="M17" s="31">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -7810,7 +9630,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="43" t="s">
@@ -7843,7 +9663,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="43" t="s">
@@ -7869,71 +9689,73 @@
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
     </row>
-    <row r="20" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+    <row r="20" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45">
         <v>14</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="41" t="s">
+      <c r="C20" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="38">
+      <c r="E20" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="47">
         <v>4</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-    </row>
-    <row r="21" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45">
         <v>15</v>
       </c>
-      <c r="B21" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="53" t="s">
+      <c r="B21" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="47">
         <v>4</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55">
+      <c r="G21" s="47"/>
+      <c r="H21" s="47">
         <v>0</v>
       </c>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>16</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="41" t="s">
         <v>7</v>
@@ -7965,16 +9787,16 @@
       <c r="W23" s="33"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -8005,7 +9827,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -8013,15 +9835,15 @@
         <v>19</v>
       </c>
       <c r="C33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>21</v>
       </c>
@@ -8034,65 +9856,97 @@
       <c r="E55" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
-      </c>
-      <c r="E56" s="14" t="e">
+        <v>7</v>
+      </c>
+      <c r="E56" s="14">
         <f>D56/C56</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G56" s="14">
+        <f>(E56+F56)/2</f>
+        <v>0.88749999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
-      </c>
-      <c r="E57" s="14" t="e">
+        <v>3</v>
+      </c>
+      <c r="E57" s="14">
         <f t="shared" ref="E57:E59" si="0">D57/C57</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G57" s="14">
+        <f t="shared" ref="G57:G59" si="1">(E57+F57)/2</f>
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D58" s="7">
-        <v>0</v>
-      </c>
-      <c r="E58" s="14" t="e">
+        <v>1</v>
+      </c>
+      <c r="E58" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="14">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
-      </c>
-      <c r="E59" s="14" t="e">
+        <v>1</v>
+      </c>
+      <c r="E59" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="14">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -8123,10 +9977,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8140,11 +9994,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8153,9 +10007,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8164,41 +10018,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -8218,6 +10072,569 @@
         <v>6</v>
       </c>
       <c r="M6" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="64">
+        <v>1</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="64">
+        <v>12</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+    </row>
+    <row r="8" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="64">
+        <v>2</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="64">
+        <v>6</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+    </row>
+    <row r="9" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
+        <v>3</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="64">
+        <v>12</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+    </row>
+    <row r="10" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="64">
+        <v>4</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="64">
+        <v>18</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+    </row>
+    <row r="11" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="64">
+        <v>5</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="64">
+        <v>18</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+    </row>
+    <row r="12" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="64">
+        <v>6</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="64">
+        <v>15</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+    </row>
+    <row r="13" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="64">
+        <v>7</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="64">
+        <v>8</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+    </row>
+    <row r="14" spans="1:13" s="68" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>8</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="43">
+        <v>4</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>10</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="31">
+        <v>4</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7">
+        <f>COUNT(A7:A15)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B50" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14" t="e">
+        <f>D53/C53</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14" t="e">
+        <f t="shared" ref="E54:E56" si="0">D54/C54</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:B56 D7:D18">
+      <formula1>Member</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E17">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="55">
+        <v>1</v>
+      </c>
+      <c r="H6" s="55">
+        <v>2</v>
+      </c>
+      <c r="I6" s="55">
+        <v>3</v>
+      </c>
+      <c r="J6" s="55">
+        <v>4</v>
+      </c>
+      <c r="K6" s="55">
+        <v>5</v>
+      </c>
+      <c r="L6" s="55">
+        <v>6</v>
+      </c>
+      <c r="M6" s="55">
         <v>7</v>
       </c>
     </row>
@@ -8392,28 +10809,28 @@
       <c r="M16" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
     </row>
     <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="54"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
@@ -8535,11 +10952,11 @@
     <mergeCell ref="E5:E6"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 B50:B53">
+      <formula1>Member</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
       <formula1>Status</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 B50:B53">
-      <formula1>Member</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8547,7 +10964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C10"/>
   <sheetViews>
@@ -8574,7 +10991,7 @@
       <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="76" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8585,7 +11002,7 @@
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="76"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -8594,7 +11011,7 @@
       <c r="B7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="76" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8605,7 +11022,7 @@
       <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="76"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
@@ -8639,12 +11056,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8671,8 +11088,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -8680,7 +11108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -8720,7 +11148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="121">
   <si>
     <t>No.</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Continue from SPRINT 2 transfer from KhoaVNA</t>
+  </si>
+  <si>
+    <t>27/5/2015</t>
   </si>
 </sst>
 </file>
@@ -1219,11 +1222,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1191708112"/>
-        <c:axId val="-1191699408"/>
+        <c:axId val="718629696"/>
+        <c:axId val="718632416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1191708112"/>
+        <c:axId val="718629696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1191699408"/>
+        <c:crossAx val="718632416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1274,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1191699408"/>
+        <c:axId val="718632416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1326,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1191708112"/>
+        <c:crossAx val="718629696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1807,11 +1810,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1218288032"/>
-        <c:axId val="-1218286400"/>
+        <c:axId val="877075040"/>
+        <c:axId val="877065248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1218288032"/>
+        <c:axId val="877075040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218286400"/>
+        <c:crossAx val="877065248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1862,7 +1865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1218286400"/>
+        <c:axId val="877065248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1914,7 +1917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218288032"/>
+        <c:crossAx val="877075040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2395,11 +2398,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1066797136"/>
-        <c:axId val="-1066795504"/>
+        <c:axId val="877073952"/>
+        <c:axId val="877070144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1066797136"/>
+        <c:axId val="877073952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1066795504"/>
+        <c:crossAx val="877070144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2450,7 +2453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1066795504"/>
+        <c:axId val="877070144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2502,7 +2505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1066797136"/>
+        <c:crossAx val="877073952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2983,11 +2986,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1066799856"/>
-        <c:axId val="-1066798224"/>
+        <c:axId val="877071232"/>
+        <c:axId val="877066880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1066799856"/>
+        <c:axId val="877071232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1066798224"/>
+        <c:crossAx val="877066880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3038,7 +3041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1066798224"/>
+        <c:axId val="877066880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3090,7 +3093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1066799856"/>
+        <c:crossAx val="877071232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9979,8 +9982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10003,7 +10006,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -10013,8 +10016,8 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>26</v>
+      <c r="E2" s="13">
+        <v>42041</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -10075,113 +10078,127 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="64">
+    <row r="7" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
         <v>1</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="60">
+        <v>12</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62">
+        <v>10</v>
+      </c>
+      <c r="I7" s="62">
+        <v>0</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+    </row>
+    <row r="8" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <v>2</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F8" s="60">
+        <v>6</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62">
+        <v>5</v>
+      </c>
+      <c r="J8" s="62">
+        <v>4</v>
+      </c>
+      <c r="K8" s="62">
+        <v>3</v>
+      </c>
+      <c r="L8" s="62">
+        <v>2</v>
+      </c>
+      <c r="M8" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
+        <v>3</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="60">
         <v>12</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-    </row>
-    <row r="8" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="64">
-        <v>2</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="64" t="s">
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+    </row>
+    <row r="10" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="60">
+        <v>4</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E10" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="64">
-        <v>6</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-    </row>
-    <row r="9" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
-        <v>3</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="64">
-        <v>12</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-    </row>
-    <row r="10" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="64">
-        <v>4</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="64">
+      <c r="F10" s="60">
         <v>18</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="64">
@@ -10353,13 +10370,17 @@
         <v>6</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7">
         <v>4</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
   <si>
     <t>No.</t>
   </si>
@@ -106,9 +106,6 @@
     <t>19/5/2015</t>
   </si>
   <si>
-    <t>26/5/2015</t>
-  </si>
-  <si>
     <t>Create user profile (connect automatically with their social network)</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>System Architecture</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Server&gt; Webservice for  </t>
-  </si>
-  <si>
     <t>Search nearby location function</t>
   </si>
   <si>
@@ -389,6 +383,30 @@
   </si>
   <si>
     <t>27/5/2015</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; SQLite storage</t>
+  </si>
+  <si>
+    <t>Continue from SPRINT 3</t>
+  </si>
+  <si>
+    <t>&lt;Service&gt;  Send, receive chat/message function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Service&gt;  Friends recommendation </t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; Get list friend via facebook</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; get list friend via web service</t>
+  </si>
+  <si>
+    <t>SPRINT 4</t>
+  </si>
+  <si>
+    <t>Get list friend who used this app only</t>
   </si>
 </sst>
 </file>
@@ -478,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,12 +557,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -587,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -732,14 +744,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +770,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1222,11 +1232,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="718629696"/>
-        <c:axId val="718632416"/>
+        <c:axId val="1540320160"/>
+        <c:axId val="1540321792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="718629696"/>
+        <c:axId val="1540320160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718632416"/>
+        <c:crossAx val="1540321792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1277,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="718632416"/>
+        <c:axId val="1540321792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1329,7 +1339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718629696"/>
+        <c:crossAx val="1540320160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,6 +1428,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1535,7 +1546,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1709,6 +1722,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1810,11 +1824,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="877075040"/>
-        <c:axId val="877065248"/>
+        <c:axId val="1540314176"/>
+        <c:axId val="1540323968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="877075040"/>
+        <c:axId val="1540314176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877065248"/>
+        <c:crossAx val="1540323968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1865,7 +1879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="877065248"/>
+        <c:axId val="1540323968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1917,7 +1931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877075040"/>
+        <c:crossAx val="1540314176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2006,6 +2020,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2123,12 +2138,14 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT3!$B$29:$B$30</c:f>
+              <c:f>SPRINT3!$B$28:$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2142,15 +2159,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT3!$C$29:$C$30</c:f>
+              <c:f>SPRINT3!$C$28:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2297,6 +2314,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2348,7 +2366,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT3!$B$53:$B$56</c:f>
+              <c:f>SPRINT3!$B$52:$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2368,15 +2386,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT3!$E$53:$E$56</c:f>
+              <c:f>SPRINT3!$G$52:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0357142857142856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.83333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2398,11 +2416,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="877073952"/>
-        <c:axId val="877070144"/>
+        <c:axId val="1540319616"/>
+        <c:axId val="1540321248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="877073952"/>
+        <c:axId val="1540319616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +2463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877070144"/>
+        <c:crossAx val="1540321248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2453,7 +2471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="877070144"/>
+        <c:axId val="1540321248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2505,7 +2523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877073952"/>
+        <c:crossAx val="1540319616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2594,6 +2612,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2711,7 +2730,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2986,11 +3007,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="877071232"/>
-        <c:axId val="877066880"/>
+        <c:axId val="1540327776"/>
+        <c:axId val="1540328320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="877071232"/>
+        <c:axId val="1540327776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3033,7 +3054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877066880"/>
+        <c:crossAx val="1540328320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3041,7 +3062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="877066880"/>
+        <c:axId val="1540328320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3093,7 +3114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877071232"/>
+        <c:crossAx val="1540327776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7690,13 +7711,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2867024</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7722,13 +7743,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8129,22 +8150,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>4</v>
@@ -8155,11 +8176,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -8170,11 +8191,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -8183,11 +8204,11 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -8198,7 +8219,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -8211,7 +8232,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -8226,7 +8247,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -8241,10 +8262,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -8254,11 +8275,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
@@ -8269,7 +8290,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
@@ -8284,7 +8305,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
@@ -8299,7 +8320,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="7">
         <v>6</v>
@@ -8314,7 +8335,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="7">
         <v>6</v>
@@ -8327,11 +8348,11 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -8342,7 +8363,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -8355,7 +8376,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="7">
         <v>11</v>
@@ -8370,7 +8391,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="7">
         <v>11</v>
@@ -8385,10 +8406,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -8398,11 +8419,11 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
@@ -8413,7 +8434,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -8426,11 +8447,11 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -8441,7 +8462,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="7">
         <v>8</v>
@@ -8456,7 +8477,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7">
         <v>16</v>
@@ -8469,11 +8490,11 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -8484,7 +8505,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="7">
         <v>11</v>
@@ -8497,7 +8518,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -8510,7 +8531,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -8521,11 +8542,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -8536,7 +8557,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -8549,7 +8570,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="7">
         <v>20</v>
@@ -8587,11 +8608,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8600,52 +8621,52 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="69" t="s">
+      <c r="F5" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -8673,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
@@ -8700,7 +8721,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
@@ -8733,7 +8754,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31" t="s">
@@ -8760,7 +8781,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
@@ -8789,7 +8810,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38" t="s">
@@ -8822,7 +8843,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
@@ -8851,7 +8872,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38" t="s">
@@ -8886,7 +8907,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
@@ -8921,7 +8942,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31" t="s">
@@ -8954,7 +8975,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31" t="s">
@@ -8985,7 +9006,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
@@ -9012,16 +9033,16 @@
       <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -9175,8 +9196,8 @@
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9190,11 +9211,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -9203,44 +9224,44 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
@@ -9253,12 +9274,12 @@
       <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="30">
         <v>1</v>
       </c>
@@ -9296,10 +9317,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>7</v>
@@ -9327,10 +9348,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>7</v>
@@ -9356,7 +9377,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="57"/>
       <c r="D9" s="56" t="s">
@@ -9385,7 +9406,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="49" t="s">
@@ -9412,10 +9433,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>6</v>
@@ -9447,7 +9468,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="43" t="s">
@@ -9474,7 +9495,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49" t="s">
@@ -9503,7 +9524,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="49" t="s">
@@ -9534,10 +9555,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>8</v>
@@ -9561,7 +9582,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="43" t="s">
@@ -9594,10 +9615,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>5</v>
@@ -9633,7 +9654,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="43" t="s">
@@ -9666,7 +9687,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="43" t="s">
@@ -9697,10 +9718,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>6</v>
@@ -9726,10 +9747,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>5</v>
@@ -9755,10 +9776,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="41" t="s">
         <v>7</v>
@@ -9790,16 +9811,16 @@
       <c r="W23" s="33"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -9860,7 +9881,7 @@
         <v>23</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G55" s="7"/>
     </row>
@@ -9980,10 +10001,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9997,22 +10018,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="A1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -10021,41 +10042,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -10078,46 +10099,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
+    <row r="7" spans="1:13" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
         <v>1</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="60" t="s">
+      <c r="B7" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="43">
         <v>12</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62">
+      <c r="G7" s="43">
         <v>10</v>
       </c>
-      <c r="I7" s="62">
+      <c r="H7" s="43">
+        <v>10</v>
+      </c>
+      <c r="I7" s="43">
         <v>0</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-    </row>
-    <row r="8" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
         <v>2</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>6</v>
@@ -10126,38 +10149,42 @@
         <v>19</v>
       </c>
       <c r="F8" s="60">
-        <v>6</v>
-      </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62">
-        <v>5</v>
-      </c>
-      <c r="J8" s="62">
-        <v>4</v>
-      </c>
-      <c r="K8" s="62">
-        <v>3</v>
-      </c>
-      <c r="L8" s="62">
-        <v>2</v>
-      </c>
-      <c r="M8" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G8" s="60">
+        <v>10</v>
+      </c>
+      <c r="H8" s="60">
+        <v>8</v>
+      </c>
+      <c r="I8" s="60">
+        <v>8</v>
+      </c>
+      <c r="J8" s="60">
+        <v>8</v>
+      </c>
+      <c r="K8" s="60">
+        <v>8</v>
+      </c>
+      <c r="L8" s="60">
+        <v>8</v>
+      </c>
+      <c r="M8" s="60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
         <v>3</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="60" t="s">
         <v>19</v>
@@ -10165,26 +10192,40 @@
       <c r="F9" s="60">
         <v>12</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-    </row>
-    <row r="10" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G9" s="60">
+        <v>10</v>
+      </c>
+      <c r="H9" s="60">
+        <v>10</v>
+      </c>
+      <c r="I9" s="60">
+        <v>10</v>
+      </c>
+      <c r="J9" s="60">
+        <v>10</v>
+      </c>
+      <c r="K9" s="60">
+        <v>10</v>
+      </c>
+      <c r="L9" s="60">
+        <v>10</v>
+      </c>
+      <c r="M9" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="60">
         <v>4</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="60" t="s">
         <v>19</v>
@@ -10192,352 +10233,420 @@
       <c r="F10" s="60">
         <v>18</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="64">
+      <c r="G10" s="60">
+        <v>18</v>
+      </c>
+      <c r="H10" s="60">
+        <v>18</v>
+      </c>
+      <c r="I10" s="60">
+        <v>18</v>
+      </c>
+      <c r="J10" s="60">
+        <v>18</v>
+      </c>
+      <c r="K10" s="60">
+        <v>18</v>
+      </c>
+      <c r="L10" s="60">
+        <v>18</v>
+      </c>
+      <c r="M10" s="60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
         <v>5</v>
       </c>
-      <c r="B11" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="64" t="s">
+      <c r="B11" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="64">
-        <v>18</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="64">
+      <c r="E11" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="43">
+        <v>15</v>
+      </c>
+      <c r="G11" s="43">
+        <v>13</v>
+      </c>
+      <c r="H11" s="43">
+        <v>10</v>
+      </c>
+      <c r="I11" s="43">
+        <v>8</v>
+      </c>
+      <c r="J11" s="43">
+        <v>4</v>
+      </c>
+      <c r="K11" s="43">
+        <v>0</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+    </row>
+    <row r="12" spans="1:13" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
         <v>6</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="64" t="s">
+      <c r="B12" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="64">
-        <v>15</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-    </row>
-    <row r="13" spans="1:13" s="67" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="64">
+      <c r="E12" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="43">
+        <v>8</v>
+      </c>
+      <c r="G12" s="43">
+        <v>8</v>
+      </c>
+      <c r="H12" s="43">
+        <v>8</v>
+      </c>
+      <c r="I12" s="43">
+        <v>4</v>
+      </c>
+      <c r="J12" s="43">
+        <v>4</v>
+      </c>
+      <c r="K12" s="43">
+        <v>0</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" s="64" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
         <v>7</v>
       </c>
-      <c r="B13" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="64">
+      <c r="E13" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="43">
+        <v>4</v>
+      </c>
+      <c r="G13" s="43">
+        <v>4</v>
+      </c>
+      <c r="H13" s="43">
+        <v>4</v>
+      </c>
+      <c r="I13" s="43">
+        <v>0</v>
+      </c>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>8</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-    </row>
-    <row r="14" spans="1:13" s="68" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
-        <v>8</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="44" t="s">
+      <c r="B14" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="43">
         <v>4</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
+      <c r="G14" s="43">
+        <v>4</v>
+      </c>
+      <c r="H14" s="43">
+        <v>4</v>
+      </c>
+      <c r="I14" s="43">
+        <v>4</v>
+      </c>
+      <c r="J14" s="43">
+        <v>4</v>
+      </c>
+      <c r="K14" s="43">
+        <v>4</v>
+      </c>
+      <c r="L14" s="43">
+        <v>0</v>
+      </c>
       <c r="M14" s="43"/>
     </row>
-    <row r="15" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>10</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="31"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="31">
+        <v>10</v>
+      </c>
+      <c r="F15" s="73">
+        <v>20</v>
+      </c>
+      <c r="G15" s="73">
+        <v>16</v>
+      </c>
+      <c r="H15" s="73">
+        <v>14</v>
+      </c>
+      <c r="I15" s="73">
+        <v>10</v>
+      </c>
+      <c r="J15" s="73">
+        <v>8</v>
+      </c>
+      <c r="K15" s="73">
         <v>4</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="L15" s="73">
+        <v>4</v>
+      </c>
+      <c r="M15" s="73">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="7">
-        <v>20</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="73">
+        <v>4</v>
+      </c>
+      <c r="G16" s="73">
+        <v>2</v>
+      </c>
+      <c r="H16" s="73">
+        <v>0</v>
+      </c>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="7">
-        <v>4</v>
-      </c>
-      <c r="G17" s="7">
-        <v>2</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
+      <c r="B27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B49" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="7">
-        <f>COUNT(A7:A15)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="D51" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B50" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="7">
+        <v>7</v>
+      </c>
+      <c r="D52" s="7">
+        <v>4</v>
+      </c>
+      <c r="E52" s="14">
+        <f>D52/C52</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="G52" s="14">
+        <f>(E52+F52)/2</f>
+        <v>1.0357142857142856</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" s="7">
-        <v>0</v>
-      </c>
-      <c r="E53" s="14" t="e">
-        <f>D53/C53</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E53" s="14">
+        <f t="shared" ref="E53:E55" si="0">D53/C53</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F53" s="14">
+        <v>1</v>
+      </c>
+      <c r="G53" s="14">
+        <f t="shared" ref="G53:G55" si="1">(E53+F53)/2</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
       </c>
       <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G54" s="14">
         <v>0</v>
       </c>
-      <c r="E54" s="14" t="e">
-        <f t="shared" ref="E54:E56" si="0">D54/C54</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="7">
+      <c r="F55" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="14">
         <v>0</v>
-      </c>
-      <c r="D56" s="7">
-        <v>0</v>
-      </c>
-      <c r="E56" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="A22:C23"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -10546,10 +10655,10 @@
     <mergeCell ref="E5:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:B56 D7:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B55 D7:D17">
       <formula1>Member</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E16">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -10563,8 +10672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10578,65 +10687,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="A1" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>25</v>
+      <c r="E1" s="13">
+        <v>42041</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>26</v>
+      <c r="E2" s="13">
+        <v>42222</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="55">
         <v>1</v>
       </c>
@@ -10660,186 +10769,258 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="60">
         <v>1</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="60">
+        <v>18</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="60">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="B8" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="60">
+        <v>8</v>
+      </c>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="60">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="B9" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="60">
+        <v>4</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="60">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="B10" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="E10" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="60">
+        <v>10</v>
+      </c>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="73">
+        <v>5</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="43">
+        <v>10</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="73">
+        <v>7</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="43">
+        <v>16</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="73">
+        <v>8</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="E14" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="43">
+        <v>10</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="73">
+        <v>9</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="43">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="73">
         <v>10</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
@@ -10862,7 +11043,7 @@
       </c>
       <c r="C25" s="7">
         <f>COUNT(A7:A16)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -10973,15 +11154,16 @@
     <mergeCell ref="E5:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 B50:B53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D15 B50:B53">
       <formula1>Member</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E15">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11002,7 +11184,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11010,9 +11192,9 @@
         <v>1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="72" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11021,18 +11203,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="76"/>
+        <v>27</v>
+      </c>
+      <c r="C6" s="72"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>3</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="72" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11041,16 +11223,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="76"/>
+        <v>30</v>
+      </c>
+      <c r="C8" s="72"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>7</v>
@@ -11061,7 +11243,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>6</v>
@@ -11097,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -11105,7 +11287,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11113,7 +11295,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11121,7 +11303,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="128">
   <si>
     <t>No.</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>Get list friend who used this app only</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; location by real path</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +560,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -599,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -747,6 +756,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,12 +786,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,11 +1246,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1540320160"/>
-        <c:axId val="1540321792"/>
+        <c:axId val="2125655408"/>
+        <c:axId val="2125648880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1540320160"/>
+        <c:axId val="2125655408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540321792"/>
+        <c:crossAx val="2125648880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1540321792"/>
+        <c:axId val="2125648880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1339,7 +1353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540320160"/>
+        <c:crossAx val="2125655408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1428,7 +1442,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1546,9 +1559,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1722,7 +1733,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1824,11 +1834,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1540314176"/>
-        <c:axId val="1540323968"/>
+        <c:axId val="2125653232"/>
+        <c:axId val="2125653776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1540314176"/>
+        <c:axId val="2125653232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +1881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540323968"/>
+        <c:crossAx val="2125653776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1879,7 +1889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1540323968"/>
+        <c:axId val="2125653776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1931,7 +1941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540314176"/>
+        <c:crossAx val="2125653232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2020,7 +2030,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2138,9 +2147,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2314,7 +2321,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2416,11 +2422,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1540319616"/>
-        <c:axId val="1540321248"/>
+        <c:axId val="2125650512"/>
+        <c:axId val="2125643984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1540319616"/>
+        <c:axId val="2125650512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540321248"/>
+        <c:crossAx val="2125643984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2471,7 +2477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1540321248"/>
+        <c:axId val="2125643984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2523,7 +2529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540319616"/>
+        <c:crossAx val="2125650512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2612,7 +2618,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2730,9 +2735,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3007,11 +3010,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1540327776"/>
-        <c:axId val="1540328320"/>
+        <c:axId val="1970537536"/>
+        <c:axId val="1970530464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1540327776"/>
+        <c:axId val="1970537536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,7 +3057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540328320"/>
+        <c:crossAx val="1970530464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3062,7 +3065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1540328320"/>
+        <c:axId val="1970530464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3114,7 +3117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540327776"/>
+        <c:crossAx val="1970537536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8608,11 +8611,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8621,9 +8624,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8632,41 +8635,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -9033,16 +9036,16 @@
       <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -9211,11 +9214,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -9224,9 +9227,9 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -9235,33 +9238,33 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
@@ -9274,12 +9277,12 @@
       <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="30">
         <v>1</v>
       </c>
@@ -9811,16 +9814,16 @@
       <c r="W23" s="33"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -10018,11 +10021,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10031,9 +10034,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -10042,41 +10045,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -10413,28 +10416,28 @@
       <c r="E15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="65">
         <v>20</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="65">
         <v>16</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="65">
         <v>14</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="65">
         <v>10</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="65">
         <v>8</v>
       </c>
-      <c r="K15" s="73">
+      <c r="K15" s="65">
         <v>4</v>
       </c>
-      <c r="L15" s="73">
+      <c r="L15" s="65">
         <v>4</v>
       </c>
-      <c r="M15" s="73">
+      <c r="M15" s="65">
         <v>0</v>
       </c>
     </row>
@@ -10452,20 +10455,20 @@
       <c r="E16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="65">
         <v>4</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="65">
         <v>2</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="65">
         <v>0</v>
       </c>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -10483,16 +10486,16 @@
       <c r="M17" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -10596,7 +10599,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="14">
-        <f t="shared" ref="G53:G55" si="1">(E53+F53)/2</f>
+        <f t="shared" ref="G53" si="1">(E53+F53)/2</f>
         <v>0.83333333333333326</v>
       </c>
     </row>
@@ -10672,8 +10675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10687,11 +10690,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10700,9 +10703,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -10711,41 +10714,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="55">
         <v>1</v>
       </c>
@@ -10768,119 +10771,125 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
+    <row r="7" spans="1:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="75">
         <v>18</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+    </row>
+    <row r="8" spans="1:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="75">
+        <v>8</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+    </row>
+    <row r="9" spans="1:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <v>3</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E9" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="60">
-        <v>8</v>
-      </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="60">
-        <v>3</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="60" t="s">
+      <c r="F9" s="75">
+        <v>4</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+    </row>
+    <row r="10" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="60">
-        <v>4</v>
-      </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
-        <v>4</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="60" t="s">
+      <c r="E10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22">
+        <v>10</v>
+      </c>
+      <c r="G10" s="22">
+        <v>10</v>
+      </c>
+      <c r="H10" s="22">
         <v>5</v>
       </c>
-      <c r="E10" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="60">
-        <v>10</v>
-      </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="73">
+      <c r="A11" s="65">
         <v>5</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="66" t="s">
         <v>121</v>
       </c>
       <c r="C11" s="43"/>
@@ -10894,58 +10903,72 @@
         <v>10</v>
       </c>
       <c r="G11" s="43"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65" t="s">
+        <v>127</v>
+      </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="D12" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="43">
+        <v>10</v>
+      </c>
       <c r="G12" s="43"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="73">
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+    </row>
+    <row r="13" spans="1:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
         <v>7</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="43">
+      <c r="E13" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="75">
         <v>16</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
+      <c r="G13" s="75">
+        <v>16</v>
+      </c>
+      <c r="H13" s="75">
+        <v>16</v>
+      </c>
+      <c r="I13" s="75">
+        <v>14</v>
+      </c>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="73">
+      <c r="A14" s="65">
         <v>8</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="65" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -10961,66 +10984,72 @@
         <v>10</v>
       </c>
       <c r="G14" s="43"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+    </row>
+    <row r="15" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="43">
+      <c r="E15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="22">
         <v>8</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
+      <c r="G15" s="22">
+        <v>8</v>
+      </c>
+      <c r="H15" s="22">
+        <v>4</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="73">
+      <c r="A16" s="65">
         <v>10</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
@@ -11194,7 +11223,7 @@
       <c r="B5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11205,7 +11234,7 @@
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="72"/>
+      <c r="C6" s="74"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -11214,7 +11243,7 @@
       <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="74" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11225,7 +11254,7 @@
       <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="74"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -608,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,9 +759,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,11 +788,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,11 +1243,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2125655408"/>
-        <c:axId val="2125648880"/>
+        <c:axId val="776044160"/>
+        <c:axId val="776035456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125655408"/>
+        <c:axId val="776044160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125648880"/>
+        <c:crossAx val="776035456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125648880"/>
+        <c:axId val="776035456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1353,7 +1350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125655408"/>
+        <c:crossAx val="776044160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1834,11 +1831,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2125653232"/>
-        <c:axId val="2125653776"/>
+        <c:axId val="930382320"/>
+        <c:axId val="930382864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125653232"/>
+        <c:axId val="930382320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125653776"/>
+        <c:crossAx val="930382864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1889,7 +1886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125653776"/>
+        <c:axId val="930382864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1941,7 +1938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125653232"/>
+        <c:crossAx val="930382320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2422,11 +2419,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2125650512"/>
-        <c:axId val="2125643984"/>
+        <c:axId val="930383408"/>
+        <c:axId val="930371440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125650512"/>
+        <c:axId val="930383408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125643984"/>
+        <c:crossAx val="930371440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2477,7 +2474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125643984"/>
+        <c:axId val="930371440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2529,7 +2526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125650512"/>
+        <c:crossAx val="930383408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3010,11 +3007,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1970537536"/>
-        <c:axId val="1970530464"/>
+        <c:axId val="930378512"/>
+        <c:axId val="930369808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1970537536"/>
+        <c:axId val="930378512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3057,7 +3054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970530464"/>
+        <c:crossAx val="930369808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3065,7 +3062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1970530464"/>
+        <c:axId val="930369808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3117,7 +3114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970537536"/>
+        <c:crossAx val="930378512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8611,11 +8608,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8624,9 +8621,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8635,41 +8632,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -9036,16 +9033,16 @@
       <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -9214,11 +9211,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -9227,9 +9224,9 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -9238,33 +9235,33 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
@@ -9277,12 +9274,12 @@
       <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="30">
         <v>1</v>
       </c>
@@ -9814,16 +9811,16 @@
       <c r="W23" s="33"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -10021,11 +10018,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10034,9 +10031,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -10045,41 +10042,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -10486,16 +10483,16 @@
       <c r="M17" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -10676,7 +10673,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10690,11 +10687,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10703,9 +10700,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -10714,41 +10711,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="55">
         <v>1</v>
       </c>
@@ -10771,88 +10768,90 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75">
+    <row r="7" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
         <v>1</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="60">
         <v>18</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-    </row>
-    <row r="8" spans="1:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75">
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+    </row>
+    <row r="8" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
         <v>2</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="60">
+        <v>8</v>
+      </c>
+      <c r="G8" s="60">
+        <v>0</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+    </row>
+    <row r="9" spans="1:13" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66">
+        <v>3</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="75">
-        <v>8</v>
-      </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-    </row>
-    <row r="9" spans="1:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75">
-        <v>3</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="75">
+      <c r="F9" s="66">
         <v>4</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-    </row>
-    <row r="10" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+    </row>
+    <row r="10" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>4</v>
       </c>
@@ -10885,113 +10884,123 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+    <row r="11" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
         <v>5</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="60"/>
+      <c r="D11" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="60">
         <v>10</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65" t="s">
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="43">
+      <c r="E12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-    </row>
-    <row r="13" spans="1:13" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75">
+      <c r="F12" s="60">
+        <v>10</v>
+      </c>
+      <c r="G12" s="60">
+        <v>8</v>
+      </c>
+      <c r="H12" s="60">
+        <v>6</v>
+      </c>
+      <c r="I12" s="60">
+        <v>0</v>
+      </c>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+    </row>
+    <row r="13" spans="1:13" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66">
         <v>7</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="66">
         <v>16</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="66">
         <v>16</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="66">
         <v>16</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="66">
         <v>14</v>
       </c>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+    </row>
+    <row r="14" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
         <v>8</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="43">
+      <c r="E14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-    </row>
-    <row r="15" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="60">
+        <v>10</v>
+      </c>
+      <c r="G14" s="60">
+        <v>6</v>
+      </c>
+      <c r="H14" s="60">
+        <v>0</v>
+      </c>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+    </row>
+    <row r="15" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>9</v>
       </c>
@@ -11040,16 +11049,16 @@
       <c r="M16" s="65"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
@@ -11223,7 +11232,7 @@
       <c r="B5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="76" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11234,7 +11243,7 @@
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="76"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -11243,7 +11252,7 @@
       <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="76" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11254,7 +11263,7 @@
       <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="76"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -1243,11 +1243,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="776044160"/>
-        <c:axId val="776035456"/>
+        <c:axId val="188991872"/>
+        <c:axId val="188989152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="776044160"/>
+        <c:axId val="188991872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776035456"/>
+        <c:crossAx val="188989152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="776035456"/>
+        <c:axId val="188989152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1350,7 +1350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776044160"/>
+        <c:crossAx val="188991872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1831,11 +1831,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="930382320"/>
-        <c:axId val="930382864"/>
+        <c:axId val="188992416"/>
+        <c:axId val="188993504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="930382320"/>
+        <c:axId val="188992416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930382864"/>
+        <c:crossAx val="188993504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1886,7 +1886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="930382864"/>
+        <c:axId val="188993504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1938,7 +1938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930382320"/>
+        <c:crossAx val="188992416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2419,11 +2419,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="930383408"/>
-        <c:axId val="930371440"/>
+        <c:axId val="343299888"/>
+        <c:axId val="343305328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="930383408"/>
+        <c:axId val="343299888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930371440"/>
+        <c:crossAx val="343305328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2474,7 +2474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="930371440"/>
+        <c:axId val="343305328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2526,7 +2526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930383408"/>
+        <c:crossAx val="343299888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3007,11 +3007,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="930378512"/>
-        <c:axId val="930369808"/>
+        <c:axId val="343300432"/>
+        <c:axId val="343296624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="930378512"/>
+        <c:axId val="343300432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,7 +3054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930369808"/>
+        <c:crossAx val="343296624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3062,7 +3062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="930369808"/>
+        <c:axId val="343296624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3114,7 +3114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="930378512"/>
+        <c:crossAx val="343300432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10673,7 +10673,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10790,9 +10790,13 @@
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
       <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="J7" s="60">
+        <v>16</v>
+      </c>
       <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
+      <c r="L7" s="60">
+        <v>10</v>
+      </c>
       <c r="M7" s="60"/>
     </row>
     <row r="8" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="11" r:id="rId1"/>
@@ -12,10 +12,11 @@
     <sheet name="SPRINT2" sheetId="4" r:id="rId3"/>
     <sheet name="SPRINT3" sheetId="8" r:id="rId4"/>
     <sheet name="SPRINT4" sheetId="12" r:id="rId5"/>
-    <sheet name="Project Coreflow" sheetId="6" r:id="rId6"/>
-    <sheet name="Question" sheetId="7" r:id="rId7"/>
-    <sheet name="Member" sheetId="2" r:id="rId8"/>
-    <sheet name="TaskStatus" sheetId="3" r:id="rId9"/>
+    <sheet name="SPRINT5" sheetId="13" r:id="rId6"/>
+    <sheet name="Project Coreflow" sheetId="6" r:id="rId7"/>
+    <sheet name="Question" sheetId="7" r:id="rId8"/>
+    <sheet name="Member" sheetId="2" r:id="rId9"/>
+    <sheet name="TaskStatus" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Member">Member!$A$1:$A$4</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="138">
   <si>
     <t>No.</t>
   </si>
@@ -394,13 +395,7 @@
     <t>&lt;Service&gt;  Send, receive chat/message function</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Service&gt;  Friends recommendation </t>
-  </si>
-  <si>
     <t>&lt;Client&gt; Get list friend via facebook</t>
-  </si>
-  <si>
-    <t>&lt;Client&gt; get list friend via web service</t>
   </si>
   <si>
     <t>SPRINT 4</t>
@@ -410,6 +405,42 @@
   </si>
   <si>
     <t>&lt;Client&gt; location by real path</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; Get list friend via web service</t>
+  </si>
+  <si>
+    <t>&lt;Client&gt; Algorithm recommended person</t>
+  </si>
+  <si>
+    <t>Continue from SPRINT 4</t>
+  </si>
+  <si>
+    <t>Using Redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Service&gt;Execute  friends recommendation </t>
+  </si>
+  <si>
+    <t>Show recommended person</t>
+  </si>
+  <si>
+    <t>Get list friend via facebook</t>
+  </si>
+  <si>
+    <t>Register function</t>
+  </si>
+  <si>
+    <t>Update profile function</t>
+  </si>
+  <si>
+    <t>Search, add new friend function</t>
+  </si>
+  <si>
+    <t>Setting profile, save setting, datting recommendation options</t>
+  </si>
+  <si>
+    <t>15/6/2015</t>
   </si>
 </sst>
 </file>
@@ -499,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,12 +591,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -608,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,11 +784,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1098,6 +1131,308 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Team</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SPRINT5!$B$50:$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ThangPV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KhuongMH</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HungLV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KhoaVNA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPRINT5!$E$50:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="51223360"/>
+        <c:axId val="51224448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51223360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51224448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51224448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51223360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -1243,11 +1578,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="188991872"/>
-        <c:axId val="188989152"/>
+        <c:axId val="77172928"/>
+        <c:axId val="77177280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188991872"/>
+        <c:axId val="77172928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188989152"/>
+        <c:crossAx val="77177280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,7 +1633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188989152"/>
+        <c:axId val="77177280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1350,7 +1685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188991872"/>
+        <c:crossAx val="77172928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1439,6 +1774,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1556,7 +1892,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1730,6 +2068,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1831,11 +2170,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="188992416"/>
-        <c:axId val="188993504"/>
+        <c:axId val="77174560"/>
+        <c:axId val="77179456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188992416"/>
+        <c:axId val="77174560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +2217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188993504"/>
+        <c:crossAx val="77179456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1886,7 +2225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188993504"/>
+        <c:axId val="77179456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1938,7 +2277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188992416"/>
+        <c:crossAx val="77174560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2027,6 +2366,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2144,7 +2484,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2318,6 +2660,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2419,11 +2762,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="343299888"/>
-        <c:axId val="343305328"/>
+        <c:axId val="77181088"/>
+        <c:axId val="77170752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="343299888"/>
+        <c:axId val="77181088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343305328"/>
+        <c:crossAx val="77170752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2474,7 +2817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343305328"/>
+        <c:axId val="77170752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2526,7 +2869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343299888"/>
+        <c:crossAx val="77181088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2615,6 +2958,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2732,12 +3076,14 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT4!$B$26:$B$27</c:f>
+              <c:f>SPRINT4!$B$25:$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2751,15 +3097,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT4!$C$26:$C$27</c:f>
+              <c:f>SPRINT4!$C$25:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,6 +3252,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2957,7 +3304,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SPRINT4!$B$50:$B$53</c:f>
+              <c:f>SPRINT4!$B$49:$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2977,15 +3324,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SPRINT4!$E$50:$E$53</c:f>
+              <c:f>SPRINT4!$G$49:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3007,11 +3354,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="343300432"/>
-        <c:axId val="343296624"/>
+        <c:axId val="77169120"/>
+        <c:axId val="51227168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="343300432"/>
+        <c:axId val="77169120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,7 +3401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343296624"/>
+        <c:crossAx val="51227168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3062,7 +3409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343296624"/>
+        <c:axId val="51227168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3114,7 +3461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343300432"/>
+        <c:crossAx val="77169120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3163,7 +3510,337 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Tasks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SPRINT5!$B$26:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Finished</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inprocess</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SPRINT5!$C$26:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71150451021208549"/>
+          <c:y val="0.417339059890241"/>
+          <c:w val="0.24251847829366158"/>
+          <c:h val="0.16568519844110396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3483,6 +4160,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -4002,7 +4719,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4505,8 +5222,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4563,7 +5280,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4614,13 +5331,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4631,19 +5341,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4681,7 +5384,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4724,23 +5427,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4845,8 +5547,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4978,20 +5680,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5024,8 +5725,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5082,7 +5783,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5133,6 +5834,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5143,12 +5851,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5186,7 +5901,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5229,22 +5944,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5349,8 +6065,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5482,76 +6198,100 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5562,30 +6302,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5636,13 +6353,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5653,19 +6363,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5703,7 +6406,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5746,23 +6449,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5867,8 +6569,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6000,20 +6702,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6046,8 +6747,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6104,7 +6805,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6155,6 +6856,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6165,12 +6873,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6208,7 +6923,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6251,22 +6966,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6371,8 +7087,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6504,76 +7220,100 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6584,30 +7324,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6658,13 +7375,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6675,19 +7385,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6725,7 +7428,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6768,23 +7471,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6889,8 +7591,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7022,20 +7724,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7068,8 +7769,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7126,7 +7827,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7177,6 +7878,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7187,12 +7895,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7230,6 +7945,511 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -7539,6 +8759,525 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7780,6 +9519,75 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2867024</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -8586,6 +10394,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8608,11 +10455,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -8621,9 +10468,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -8632,41 +10479,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -9033,16 +10880,16 @@
       <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -9211,11 +11058,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -9224,9 +11071,9 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -9235,33 +11082,33 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
@@ -9274,12 +11121,12 @@
       <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="30">
         <v>1</v>
       </c>
@@ -9811,16 +11658,16 @@
       <c r="W23" s="33"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -10003,8 +11850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10018,11 +11865,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10031,9 +11878,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -10042,41 +11889,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -10483,16 +12330,16 @@
       <c r="M17" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -10670,10 +12517,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10687,11 +12534,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="A1" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10700,9 +12547,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -10711,41 +12558,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="55">
         <v>1</v>
       </c>
@@ -10787,40 +12634,610 @@
       <c r="F7" s="60">
         <v>18</v>
       </c>
+      <c r="G7" s="60">
+        <v>18</v>
+      </c>
+      <c r="H7" s="60">
+        <v>18</v>
+      </c>
+      <c r="I7" s="60">
+        <v>18</v>
+      </c>
+      <c r="J7" s="60">
+        <v>18</v>
+      </c>
+      <c r="K7" s="60">
+        <v>18</v>
+      </c>
+      <c r="L7" s="60">
+        <v>18</v>
+      </c>
+      <c r="M7" s="60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68">
+        <v>2</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="68">
+        <v>8</v>
+      </c>
+      <c r="G8" s="68">
+        <v>0</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+    </row>
+    <row r="9" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="68">
+        <v>3</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="68">
+        <v>10</v>
+      </c>
+      <c r="G9" s="68">
+        <v>10</v>
+      </c>
+      <c r="H9" s="68">
+        <v>5</v>
+      </c>
+      <c r="I9" s="68">
+        <v>0</v>
+      </c>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+    </row>
+    <row r="10" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="60">
+        <v>4</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="60">
+        <v>10</v>
+      </c>
+      <c r="G10" s="60">
+        <v>10</v>
+      </c>
+      <c r="H10" s="60">
+        <v>10</v>
+      </c>
+      <c r="I10" s="60">
+        <v>10</v>
+      </c>
+      <c r="J10" s="60">
+        <v>10</v>
+      </c>
+      <c r="K10" s="60">
+        <v>10</v>
+      </c>
+      <c r="L10" s="60">
+        <v>10</v>
+      </c>
+      <c r="M10" s="60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="68">
+        <v>5</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="68">
+        <v>10</v>
+      </c>
+      <c r="G11" s="68">
+        <v>8</v>
+      </c>
+      <c r="H11" s="68">
+        <v>6</v>
+      </c>
+      <c r="I11" s="68">
+        <v>0</v>
+      </c>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+    </row>
+    <row r="12" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68">
+        <v>6</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="68">
+        <v>16</v>
+      </c>
+      <c r="G12" s="68">
+        <v>16</v>
+      </c>
+      <c r="H12" s="68">
+        <v>16</v>
+      </c>
+      <c r="I12" s="68">
+        <v>14</v>
+      </c>
+      <c r="J12" s="68">
+        <v>10</v>
+      </c>
+      <c r="K12" s="68">
+        <v>8</v>
+      </c>
+      <c r="L12" s="68">
+        <v>4</v>
+      </c>
+      <c r="M12" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60">
+        <v>7</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="60">
+        <v>10</v>
+      </c>
+      <c r="G13" s="60">
+        <v>6</v>
+      </c>
+      <c r="H13" s="60">
+        <v>0</v>
+      </c>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+    </row>
+    <row r="14" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68">
+        <v>8</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="68">
+        <v>8</v>
+      </c>
+      <c r="G14" s="68">
+        <v>8</v>
+      </c>
+      <c r="H14" s="68">
+        <v>4</v>
+      </c>
+      <c r="I14" s="68">
+        <v>0</v>
+      </c>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="54"/>
+      <c r="B22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="54"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7">
+        <f>COUNT(A7:A15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B46" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="7">
+        <v>3</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3</v>
+      </c>
+      <c r="E49" s="14">
+        <f>D49/C49</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
+      <c r="G49" s="14">
+        <f>(E49+F49)/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="7">
+        <v>5</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" ref="E50:E52" si="0">D50/C50</f>
+        <v>0.4</v>
+      </c>
+      <c r="F50" s="14">
+        <v>1</v>
+      </c>
+      <c r="G50" s="14">
+        <f t="shared" ref="G50" si="1">(E50+F50)/2</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G51" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:B52 D7:D14">
+      <formula1>Member</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="13">
+        <v>42253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="67">
+        <v>1</v>
+      </c>
+      <c r="H6" s="67">
+        <v>2</v>
+      </c>
+      <c r="I6" s="67">
+        <v>3</v>
+      </c>
+      <c r="J6" s="67">
+        <v>4</v>
+      </c>
+      <c r="K6" s="67">
+        <v>5</v>
+      </c>
+      <c r="L6" s="67">
+        <v>6</v>
+      </c>
+      <c r="M6" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
+        <v>1</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="60">
+        <v>18</v>
+      </c>
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
       <c r="I7" s="60"/>
-      <c r="J7" s="60">
-        <v>16</v>
-      </c>
+      <c r="J7" s="60"/>
       <c r="K7" s="60"/>
-      <c r="L7" s="60">
-        <v>10</v>
-      </c>
+      <c r="L7" s="60"/>
       <c r="M7" s="60"/>
     </row>
-    <row r="8" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>104</v>
+      <c r="B8" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F8" s="60">
-        <v>8</v>
-      </c>
-      <c r="G8" s="60">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G8" s="60"/>
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
@@ -10828,217 +13245,177 @@
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
     </row>
-    <row r="9" spans="1:13" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
+    <row r="9" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
         <v>3</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="66" t="s">
+      <c r="B9" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="60">
+        <v>10</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+    </row>
+    <row r="10" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
+        <v>4</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="43">
         <v>5</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="66">
-        <v>4</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-    </row>
-    <row r="10" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>4</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>6</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="43">
         <v>5</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+    </row>
+    <row r="12" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>5</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="43">
+        <v>5</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68">
+        <v>7</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="68">
         <v>10</v>
       </c>
-      <c r="F10" s="22">
-        <v>10</v>
-      </c>
-      <c r="G10" s="22">
-        <v>10</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+    </row>
+    <row r="14" spans="1:13" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="68">
+        <v>8</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" s="63" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
-        <v>5</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="60" t="s">
+      <c r="E14" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="60">
-        <v>10</v>
-      </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-    </row>
-    <row r="12" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="60">
-        <v>10</v>
-      </c>
-      <c r="G12" s="60">
-        <v>8</v>
-      </c>
-      <c r="H12" s="60">
-        <v>6</v>
-      </c>
-      <c r="I12" s="60">
-        <v>0</v>
-      </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-    </row>
-    <row r="13" spans="1:13" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
-        <v>7</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="66">
-        <v>16</v>
-      </c>
-      <c r="G13" s="66">
-        <v>16</v>
-      </c>
-      <c r="H13" s="66">
-        <v>16</v>
-      </c>
-      <c r="I13" s="66">
-        <v>14</v>
-      </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-    </row>
-    <row r="14" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
-        <v>8</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="60">
-        <v>10</v>
-      </c>
-      <c r="G14" s="60">
-        <v>6</v>
-      </c>
-      <c r="H14" s="60">
-        <v>0</v>
-      </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-    </row>
-    <row r="15" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>9</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="22">
-        <v>8</v>
-      </c>
-      <c r="G15" s="22">
-        <v>8</v>
-      </c>
-      <c r="H15" s="22">
-        <v>4</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="F14" s="68">
+        <v>15</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+    </row>
+    <row r="15" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
-        <v>10</v>
-      </c>
+      <c r="A16" s="65"/>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
@@ -11053,28 +13430,28 @@
       <c r="M16" s="65"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
     </row>
     <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="54"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="66"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
@@ -11085,7 +13462,7 @@
       </c>
       <c r="C25" s="7">
         <f>COUNT(A7:A16)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -11196,10 +13573,10 @@
     <mergeCell ref="E5:E6"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D15 B50:B53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B53 D7:D13 D14:D15">
       <formula1>Member</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E13 E14:E15">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -11209,12 +13586,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11236,7 +13613,7 @@
       <c r="B5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11247,7 +13624,7 @@
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="76"/>
+      <c r="C6" s="77"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -11256,7 +13633,7 @@
       <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="77" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11267,7 +13644,7 @@
       <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="77"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
@@ -11301,7 +13678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -11353,7 +13730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -11391,43 +13768,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -794,6 +794,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,9 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,7 +1175,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1277,11 +1276,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="51223360"/>
-        <c:axId val="51224448"/>
+        <c:axId val="-1125043088"/>
+        <c:axId val="-1125042544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51223360"/>
+        <c:axId val="-1125043088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51224448"/>
+        <c:crossAx val="-1125042544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1332,7 +1331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51224448"/>
+        <c:axId val="-1125042544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1384,7 +1383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51223360"/>
+        <c:crossAx val="-1125043088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1578,11 +1577,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="77172928"/>
-        <c:axId val="77177280"/>
+        <c:axId val="-1125039280"/>
+        <c:axId val="-1125040368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77172928"/>
+        <c:axId val="-1125039280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77177280"/>
+        <c:crossAx val="-1125040368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1633,7 +1632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77177280"/>
+        <c:axId val="-1125040368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1685,7 +1684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77172928"/>
+        <c:crossAx val="-1125039280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2170,11 +2169,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="77174560"/>
-        <c:axId val="77179456"/>
+        <c:axId val="-1125050160"/>
+        <c:axId val="-1125042000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77174560"/>
+        <c:axId val="-1125050160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +2216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77179456"/>
+        <c:crossAx val="-1125042000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2225,7 +2224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77179456"/>
+        <c:axId val="-1125042000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2277,7 +2276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77174560"/>
+        <c:crossAx val="-1125050160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2762,11 +2761,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="77181088"/>
-        <c:axId val="77170752"/>
+        <c:axId val="-1125052880"/>
+        <c:axId val="-1125049072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77181088"/>
+        <c:axId val="-1125052880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +2808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77170752"/>
+        <c:crossAx val="-1125049072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2817,7 +2816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77170752"/>
+        <c:axId val="-1125049072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2869,7 +2868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77181088"/>
+        <c:crossAx val="-1125052880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2958,7 +2957,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3076,9 +3074,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3252,7 +3248,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3354,11 +3349,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="77169120"/>
-        <c:axId val="51227168"/>
+        <c:axId val="-1125046352"/>
+        <c:axId val="-1125044176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77169120"/>
+        <c:axId val="-1125046352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,7 +3396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51227168"/>
+        <c:crossAx val="-1125044176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3409,7 +3404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51227168"/>
+        <c:axId val="-1125044176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3461,7 +3456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77169120"/>
+        <c:crossAx val="-1125046352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10455,11 +10450,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -10468,9 +10463,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -10479,41 +10474,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -10880,16 +10875,16 @@
       <c r="M17" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -11039,11 +11034,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF0070C0"/>
+    <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D55" sqref="D55:G59"/>
     </sheetView>
   </sheetViews>
@@ -11058,11 +11053,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -11071,9 +11066,9 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -11082,33 +11077,33 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
@@ -11121,12 +11116,12 @@
       <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="30">
         <v>1</v>
       </c>
@@ -11658,16 +11653,16 @@
       <c r="W23" s="33"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -11848,6 +11843,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11865,11 +11863,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -11878,9 +11876,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -11889,41 +11887,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="5">
         <v>1</v>
       </c>
@@ -12330,16 +12328,16 @@
       <c r="M17" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -12517,10 +12515,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12534,11 +12535,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -12547,9 +12548,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -12558,41 +12559,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="55">
         <v>1</v>
       </c>
@@ -12905,16 +12906,16 @@
       <c r="M15" s="65"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
@@ -13093,10 +13094,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13110,11 +13114,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
@@ -13123,9 +13127,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -13134,41 +13138,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="67">
         <v>1</v>
       </c>
@@ -13336,13 +13340,17 @@
         <v>5</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F12" s="43">
         <v>5</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="G12" s="43">
+        <v>5</v>
+      </c>
+      <c r="H12" s="43">
+        <v>5</v>
+      </c>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
@@ -13366,8 +13374,12 @@
       <c r="F13" s="68">
         <v>10</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
+      <c r="G13" s="68">
+        <v>10</v>
+      </c>
+      <c r="H13" s="68">
+        <v>10</v>
+      </c>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
       <c r="K13" s="68"/>
@@ -13378,7 +13390,7 @@
       <c r="A14" s="68">
         <v>8</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="70" t="s">
         <v>136</v>
       </c>
       <c r="C14" s="68"/>
@@ -13386,13 +13398,17 @@
         <v>5</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F14" s="68">
         <v>15</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
+      <c r="G14" s="68">
+        <v>10</v>
+      </c>
+      <c r="H14" s="68">
+        <v>8</v>
+      </c>
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
       <c r="K14" s="68"/>
@@ -13430,16 +13446,16 @@
       <c r="M16" s="65"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="66"/>
@@ -13613,7 +13629,7 @@
       <c r="B5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="78" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13624,7 +13640,7 @@
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="78"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
@@ -13633,7 +13649,7 @@
       <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="78" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13644,7 +13660,7 @@
       <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="78"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">

--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -1276,11 +1276,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1125043088"/>
-        <c:axId val="-1125042544"/>
+        <c:axId val="982325792"/>
+        <c:axId val="982323616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1125043088"/>
+        <c:axId val="982325792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125042544"/>
+        <c:crossAx val="982323616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1331,7 +1331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1125042544"/>
+        <c:axId val="982323616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1383,7 +1383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125043088"/>
+        <c:crossAx val="982325792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1577,11 +1577,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1125039280"/>
-        <c:axId val="-1125040368"/>
+        <c:axId val="752075440"/>
+        <c:axId val="752071088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1125039280"/>
+        <c:axId val="752075440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1624,7 +1624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125040368"/>
+        <c:crossAx val="752071088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1632,7 +1632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1125040368"/>
+        <c:axId val="752071088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1684,7 +1684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125039280"/>
+        <c:crossAx val="752075440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,7 +1773,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1891,9 +1890,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2067,7 +2064,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2169,11 +2165,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1125050160"/>
-        <c:axId val="-1125042000"/>
+        <c:axId val="752072720"/>
+        <c:axId val="752061296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1125050160"/>
+        <c:axId val="752072720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125042000"/>
+        <c:crossAx val="752061296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2224,7 +2220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1125042000"/>
+        <c:axId val="752061296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2276,7 +2272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125050160"/>
+        <c:crossAx val="752072720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2365,7 +2361,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2483,9 +2478,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2659,7 +2652,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2761,11 +2753,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1125052880"/>
-        <c:axId val="-1125049072"/>
+        <c:axId val="982322528"/>
+        <c:axId val="982331776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1125052880"/>
+        <c:axId val="982322528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,7 +2800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125049072"/>
+        <c:crossAx val="982331776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2816,7 +2808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1125049072"/>
+        <c:axId val="982331776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2868,7 +2860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125052880"/>
+        <c:crossAx val="982322528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3349,11 +3341,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1125046352"/>
-        <c:axId val="-1125044176"/>
+        <c:axId val="982332320"/>
+        <c:axId val="982330144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1125046352"/>
+        <c:axId val="982332320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3396,7 +3388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125044176"/>
+        <c:crossAx val="982330144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3404,7 +3396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1125044176"/>
+        <c:axId val="982330144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3456,7 +3448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125046352"/>
+        <c:crossAx val="982332320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3545,7 +3537,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3663,9 +3654,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -13099,8 +13088,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13214,8 +13203,12 @@
       <c r="F7" s="60">
         <v>18</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="G7" s="60">
+        <v>18</v>
+      </c>
+      <c r="H7" s="60">
+        <v>18</v>
+      </c>
       <c r="I7" s="60"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
@@ -13241,8 +13234,12 @@
       <c r="F8" s="60">
         <v>10</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="60">
+        <v>10</v>
+      </c>
+      <c r="H8" s="60">
+        <v>10</v>
+      </c>
       <c r="I8" s="60"/>
       <c r="J8" s="60"/>
       <c r="K8" s="60"/>
@@ -13268,8 +13265,12 @@
       <c r="F9" s="60">
         <v>10</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="60">
+        <v>5</v>
+      </c>
+      <c r="H9" s="60">
+        <v>0</v>
+      </c>
       <c r="I9" s="60"/>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
@@ -13293,8 +13294,12 @@
       <c r="F10" s="43">
         <v>5</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="G10" s="43">
+        <v>5</v>
+      </c>
+      <c r="H10" s="43">
+        <v>3</v>
+      </c>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
@@ -13318,8 +13323,12 @@
       <c r="F11" s="43">
         <v>5</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="G11" s="43">
+        <v>5</v>
+      </c>
+      <c r="H11" s="43">
+        <v>5</v>
+      </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
